--- a/raw_data/20200818_saline/20200818_Sensor2_Test_13.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_13.xlsx
@@ -1,568 +1,984 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BF10DA-AF41-45E6-B92E-C16F6F715D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>11173.117530</v>
+        <v>11173.11753</v>
       </c>
       <c r="B2" s="1">
-        <v>3.103644</v>
+        <v>3.1036440000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1245.350000</v>
+        <v>1245.3499999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-307.642000</v>
+        <v>-307.642</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>11183.491852</v>
+        <v>11183.491851999999</v>
       </c>
       <c r="G2" s="1">
-        <v>3.106526</v>
+        <v>3.1065260000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1270.310000</v>
+        <v>1270.31</v>
       </c>
       <c r="I2" s="1">
-        <v>-265.022000</v>
+        <v>-265.02199999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>11193.934633</v>
+        <v>11193.934633000001</v>
       </c>
       <c r="L2" s="1">
         <v>3.109426</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.100000</v>
+        <v>1305.0999999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-202.532000</v>
+        <v>-202.53200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>11204.137329</v>
+        <v>11204.137328999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>3.112260</v>
+        <v>3.11226</v>
       </c>
       <c r="R2" s="1">
-        <v>1316.690000</v>
+        <v>1316.69</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.283000</v>
+        <v>-184.28299999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>11215.018640</v>
+        <v>11215.01864</v>
       </c>
       <c r="V2" s="1">
-        <v>3.115283</v>
+        <v>3.1152829999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>1329.610000</v>
+        <v>1329.61</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.751000</v>
+        <v>-170.751</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>11225.390904</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.118164</v>
+        <v>3.1181640000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>1346.440000</v>
+        <v>1346.44</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.858000</v>
+        <v>-168.858</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>11235.909099</v>
@@ -571,133 +987,133 @@
         <v>3.121086</v>
       </c>
       <c r="AG2" s="1">
-        <v>1359.450000</v>
+        <v>1359.45</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.752000</v>
+        <v>-178.75200000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>11246.330505</v>
       </c>
       <c r="AK2" s="1">
-        <v>3.123981</v>
+        <v>3.1239810000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1379.850000</v>
+        <v>1379.85</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.977000</v>
+        <v>-208.977</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>11256.551069</v>
+        <v>11256.551068999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.126820</v>
+        <v>3.1268199999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1401.360000</v>
+        <v>1401.36</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.239000</v>
+        <v>-253.239</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>11267.552831</v>
+        <v>11267.552831000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>3.129876</v>
+        <v>3.1298759999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1425.780000</v>
+        <v>1425.78</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.766000</v>
+        <v>-313.76600000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>11278.647838</v>
+        <v>11278.647838000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>3.132958</v>
+        <v>3.1329579999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1444.970000</v>
+        <v>1444.97</v>
       </c>
       <c r="BB2" s="1">
-        <v>-366.327000</v>
+        <v>-366.327</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>11289.380768</v>
+        <v>11289.380768000001</v>
       </c>
       <c r="BE2" s="1">
         <v>3.135939</v>
       </c>
       <c r="BF2" s="1">
-        <v>1529.620000</v>
+        <v>1529.62</v>
       </c>
       <c r="BG2" s="1">
-        <v>-617.179000</v>
+        <v>-617.17899999999997</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>11300.038333</v>
       </c>
       <c r="BJ2" s="1">
-        <v>3.138900</v>
+        <v>3.1389</v>
       </c>
       <c r="BK2" s="1">
-        <v>1683.290000</v>
+        <v>1683.29</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1067.900000</v>
+        <v>-1067.9000000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>11311.116949</v>
+        <v>11311.116948999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>3.141977</v>
+        <v>3.1419769999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1977.530000</v>
+        <v>1977.53</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1850.780000</v>
+        <v>-1850.78</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>11321.866247</v>
       </c>
       <c r="BT2" s="1">
-        <v>3.144963</v>
+        <v>3.1449630000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>2364.590000</v>
+        <v>2364.59</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2754.710000</v>
+        <v>-2754.71</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>11332.648808</v>
@@ -706,45 +1122,45 @@
         <v>3.147958</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2853.570000</v>
+        <v>2853.57</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3746.720000</v>
+        <v>-3746.72</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>11344.282968</v>
       </c>
       <c r="CD2" s="1">
-        <v>3.151190</v>
+        <v>3.1511900000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>4286.250000</v>
+        <v>4286.25</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6144.220000</v>
+        <v>-6144.22</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>11173.462747</v>
       </c>
       <c r="B3" s="1">
-        <v>3.103740</v>
+        <v>3.1037400000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1244.870000</v>
+        <v>1244.8699999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-307.411000</v>
+        <v>-307.411</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>11183.858892</v>
@@ -753,28 +1169,28 @@
         <v>3.106627</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.860000</v>
+        <v>1269.8599999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-264.379000</v>
+        <v>-264.37900000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>11194.459390</v>
+        <v>11194.45939</v>
       </c>
       <c r="L3" s="1">
         <v>3.109572</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.130000</v>
+        <v>1305.1300000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-202.404000</v>
+        <v>-202.404</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>11204.865457</v>
@@ -783,58 +1199,58 @@
         <v>3.112463</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.770000</v>
+        <v>1316.77</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.223000</v>
+        <v>-184.22300000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>11215.365303</v>
       </c>
       <c r="V3" s="1">
-        <v>3.115379</v>
+        <v>3.1153789999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1329.650000</v>
+        <v>1329.65</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.801000</v>
+        <v>-170.80099999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>11225.726229</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.118257</v>
+        <v>3.1182569999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>1346.400000</v>
+        <v>1346.4</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.862000</v>
+        <v>-168.86199999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>11236.267703</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.121185</v>
+        <v>3.1211850000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1359.390000</v>
+        <v>1359.39</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.794000</v>
+        <v>-178.79400000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>11246.695102</v>
@@ -843,360 +1259,360 @@
         <v>3.124082</v>
       </c>
       <c r="AL3" s="1">
-        <v>1379.860000</v>
+        <v>1379.86</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.943000</v>
+        <v>-208.94300000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>11257.248141</v>
       </c>
       <c r="AP3" s="1">
-        <v>3.127013</v>
+        <v>3.1270129999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1401.350000</v>
+        <v>1401.35</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.211000</v>
+        <v>-253.21100000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>11267.993278</v>
       </c>
       <c r="AU3" s="1">
-        <v>3.129998</v>
+        <v>3.1299980000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1425.770000</v>
+        <v>1425.77</v>
       </c>
       <c r="AW3" s="1">
-        <v>-313.739000</v>
+        <v>-313.73899999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>11279.090302</v>
+        <v>11279.090302000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>3.133081</v>
+        <v>3.1330809999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1444.990000</v>
+        <v>1444.99</v>
       </c>
       <c r="BB3" s="1">
-        <v>-366.353000</v>
+        <v>-366.35300000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>11289.745825</v>
       </c>
       <c r="BE3" s="1">
-        <v>3.136041</v>
+        <v>3.1360410000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG3" s="1">
-        <v>-617.151000</v>
+        <v>-617.15099999999995</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>11300.417778</v>
+        <v>11300.417778000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>3.139005</v>
       </c>
       <c r="BK3" s="1">
-        <v>1683.150000</v>
+        <v>1683.15</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1067.890000</v>
+        <v>-1067.8900000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>11311.553952</v>
       </c>
       <c r="BO3" s="1">
-        <v>3.142098</v>
+        <v>3.1420979999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1977.330000</v>
+        <v>1977.33</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1850.900000</v>
+        <v>-1850.9</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>11322.368230</v>
+        <v>11322.36823</v>
       </c>
       <c r="BT3" s="1">
-        <v>3.145102</v>
+        <v>3.1451020000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2365.530000</v>
+        <v>2365.5300000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2754.490000</v>
+        <v>-2754.49</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>11333.115510</v>
+        <v>11333.11551</v>
       </c>
       <c r="BY3" s="1">
         <v>3.148088</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2853.680000</v>
+        <v>2853.68</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3747.550000</v>
+        <v>-3747.55</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>11344.567639</v>
+        <v>11344.567639000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>3.151269</v>
+        <v>3.1512690000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4299.170000</v>
+        <v>4299.17</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6147.870000</v>
+        <v>-6147.87</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>11173.800521</v>
+        <v>11173.800520999999</v>
       </c>
       <c r="B4" s="1">
-        <v>3.103833</v>
+        <v>3.1038329999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1245.000000</v>
+        <v>1245</v>
       </c>
       <c r="D4" s="1">
-        <v>-307.616000</v>
+        <v>-307.61599999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>11184.544859</v>
       </c>
       <c r="G4" s="1">
-        <v>3.106818</v>
+        <v>3.1068180000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.660000</v>
+        <v>1269.6600000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-265.152000</v>
+        <v>-265.15199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>11194.695019</v>
+        <v>11194.695019000001</v>
       </c>
       <c r="L4" s="1">
-        <v>3.109638</v>
+        <v>3.1096379999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.170000</v>
+        <v>1305.17</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.970000</v>
+        <v>-202.97</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>11205.219117</v>
+        <v>11205.219117000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.112561</v>
+        <v>3.1125609999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.880000</v>
+        <v>1316.88</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.259000</v>
+        <v>-184.25899999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>11215.709489</v>
+        <v>11215.709489000001</v>
       </c>
       <c r="V4" s="1">
         <v>3.115475</v>
       </c>
       <c r="W4" s="1">
-        <v>1329.690000</v>
+        <v>1329.69</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.744000</v>
+        <v>-170.744</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>11226.075380</v>
+        <v>11226.07538</v>
       </c>
       <c r="AA4" s="1">
-        <v>3.118354</v>
+        <v>3.1183540000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1346.660000</v>
+        <v>1346.66</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.073000</v>
+        <v>-169.07300000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>11236.921399</v>
+        <v>11236.921399000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.121367</v>
+        <v>3.1213669999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>1359.390000</v>
+        <v>1359.39</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.700000</v>
+        <v>-178.7</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>11247.372104</v>
       </c>
       <c r="AK4" s="1">
-        <v>3.124270</v>
+        <v>3.1242700000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1379.890000</v>
+        <v>1379.89</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.988000</v>
+        <v>-208.988</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>11257.661642</v>
+        <v>11257.661641999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.127128</v>
+        <v>3.1271279999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1401.370000</v>
+        <v>1401.37</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.234000</v>
+        <v>-253.23400000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>11268.317699</v>
+        <v>11268.317698999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.130088</v>
+        <v>3.1300880000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1425.730000</v>
+        <v>1425.73</v>
       </c>
       <c r="AW4" s="1">
-        <v>-313.765000</v>
+        <v>-313.76499999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>11279.448879</v>
       </c>
       <c r="AZ4" s="1">
-        <v>3.133180</v>
+        <v>3.1331799999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1444.970000</v>
+        <v>1444.97</v>
       </c>
       <c r="BB4" s="1">
-        <v>-366.283000</v>
+        <v>-366.28300000000002</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>11290.102972</v>
+        <v>11290.102972000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>3.136140</v>
+        <v>3.1361400000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1529.640000</v>
+        <v>1529.64</v>
       </c>
       <c r="BG4" s="1">
-        <v>-617.156000</v>
+        <v>-617.15599999999995</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>11300.794706</v>
+        <v>11300.794706000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>3.139110</v>
+        <v>3.1391100000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1683.220000</v>
+        <v>1683.22</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1067.870000</v>
+        <v>-1067.8699999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>11311.974532</v>
       </c>
       <c r="BO4" s="1">
-        <v>3.142215</v>
+        <v>3.1422150000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1977.280000</v>
+        <v>1977.28</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1851.080000</v>
+        <v>-1851.08</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>11322.800212</v>
@@ -1205,13 +1621,13 @@
         <v>3.145222</v>
       </c>
       <c r="BU4" s="1">
-        <v>2366.420000</v>
+        <v>2366.42</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2754.140000</v>
+        <v>-2754.14</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>11333.564886</v>
@@ -1220,75 +1636,75 @@
         <v>3.148212</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2853.630000</v>
+        <v>2853.63</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3747.190000</v>
+        <v>-3747.19</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>11345.085960</v>
+        <v>11345.08596</v>
       </c>
       <c r="CD4" s="1">
-        <v>3.151413</v>
+        <v>3.1514129999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>4294.150000</v>
+        <v>4294.1499999999996</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6128.590000</v>
+        <v>-6128.59</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>11174.484008</v>
+        <v>11174.484007999999</v>
       </c>
       <c r="B5" s="1">
-        <v>3.104023</v>
+        <v>3.1040230000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1245.140000</v>
+        <v>1245.1400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-307.497000</v>
+        <v>-307.49700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>11184.891067</v>
       </c>
       <c r="G5" s="1">
-        <v>3.106914</v>
+        <v>3.1069140000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>1270.700000</v>
+        <v>1270.7</v>
       </c>
       <c r="I5" s="1">
-        <v>-265.202000</v>
+        <v>-265.202</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>11195.039215</v>
+        <v>11195.039215000001</v>
       </c>
       <c r="L5" s="1">
-        <v>3.109733</v>
+        <v>3.1097329999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.280000</v>
+        <v>1305.28</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.761000</v>
+        <v>-202.761</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>11205.566799</v>
@@ -1297,133 +1713,133 @@
         <v>3.112657</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.880000</v>
+        <v>1316.88</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.269000</v>
+        <v>-184.26900000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>11216.345858</v>
+        <v>11216.345858000001</v>
       </c>
       <c r="V5" s="1">
-        <v>3.115652</v>
+        <v>3.1156519999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>1329.590000</v>
+        <v>1329.59</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.786000</v>
+        <v>-170.786</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>11226.733107</v>
       </c>
       <c r="AA5" s="1">
-        <v>3.118537</v>
+        <v>3.1185369999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1346.700000</v>
+        <v>1346.7</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.616000</v>
+        <v>-168.61600000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>11237.296373</v>
+        <v>11237.296372999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.121471</v>
+        <v>3.1214710000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1359.410000</v>
+        <v>1359.41</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.745000</v>
+        <v>-178.745</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>11247.741165</v>
+        <v>11247.741164999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>3.124373</v>
+        <v>3.1243729999999998</v>
       </c>
       <c r="AL5" s="1">
-        <v>1379.840000</v>
+        <v>1379.84</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.977000</v>
+        <v>-208.977</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>11258.038106</v>
       </c>
       <c r="AP5" s="1">
-        <v>3.127233</v>
+        <v>3.1272329999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1401.360000</v>
+        <v>1401.36</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.225000</v>
+        <v>-253.22499999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>11268.681229</v>
       </c>
       <c r="AU5" s="1">
-        <v>3.130189</v>
+        <v>3.1301890000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1425.780000</v>
+        <v>1425.78</v>
       </c>
       <c r="AW5" s="1">
-        <v>-313.730000</v>
+        <v>-313.73</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>11279.805005</v>
       </c>
       <c r="AZ5" s="1">
-        <v>3.133279</v>
+        <v>3.1332789999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1445.000000</v>
+        <v>1445</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.323000</v>
+        <v>-366.32299999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>11290.520575</v>
       </c>
       <c r="BE5" s="1">
-        <v>3.136256</v>
+        <v>3.1362559999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1529.640000</v>
+        <v>1529.64</v>
       </c>
       <c r="BG5" s="1">
-        <v>-617.139000</v>
+        <v>-617.13900000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>11301.217825</v>
@@ -1432,90 +1848,90 @@
         <v>3.139227</v>
       </c>
       <c r="BK5" s="1">
-        <v>1683.160000</v>
+        <v>1683.16</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1067.940000</v>
+        <v>-1067.94</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>11312.377282</v>
+        <v>11312.377281999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>3.142327</v>
+        <v>3.1423269999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1977.280000</v>
+        <v>1977.28</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1851.020000</v>
+        <v>-1851.02</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>11323.237710</v>
+        <v>11323.237709999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>3.145344</v>
+        <v>3.1453440000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2367.160000</v>
+        <v>2367.16</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2754.520000</v>
+        <v>-2754.52</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>11333.990454</v>
+        <v>11333.990454000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>3.148331</v>
+        <v>3.1483310000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2853.560000</v>
+        <v>2853.56</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3747.040000</v>
+        <v>-3747.04</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>11345.628583</v>
       </c>
       <c r="CD5" s="1">
-        <v>3.151563</v>
+        <v>3.1515629999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4284.030000</v>
+        <v>4284.03</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6145.380000</v>
+        <v>-6145.38</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>11174.826744</v>
       </c>
       <c r="B6" s="1">
-        <v>3.104119</v>
+        <v>3.1041189999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1244.670000</v>
+        <v>1244.67</v>
       </c>
       <c r="D6" s="1">
-        <v>-307.200000</v>
+        <v>-307.2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>11185.239786</v>
@@ -1524,133 +1940,133 @@
         <v>3.107011</v>
       </c>
       <c r="H6" s="1">
-        <v>1270.080000</v>
+        <v>1270.08</v>
       </c>
       <c r="I6" s="1">
-        <v>-264.936000</v>
+        <v>-264.93599999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>11195.688477</v>
       </c>
       <c r="L6" s="1">
-        <v>3.109913</v>
+        <v>3.1099130000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.170000</v>
+        <v>1305.17</v>
       </c>
       <c r="N6" s="1">
-        <v>-202.067000</v>
+        <v>-202.06700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>11206.211136</v>
       </c>
       <c r="Q6" s="1">
-        <v>3.112836</v>
+        <v>3.1128360000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>1316.780000</v>
+        <v>1316.78</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.387000</v>
+        <v>-184.387</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>11216.740674</v>
+        <v>11216.740674000001</v>
       </c>
       <c r="V6" s="1">
         <v>3.115761</v>
       </c>
       <c r="W6" s="1">
-        <v>1329.690000</v>
+        <v>1329.69</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.709000</v>
+        <v>-170.709</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>11227.120451</v>
+        <v>11227.120451000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>3.118645</v>
+        <v>3.1186449999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1346.690000</v>
+        <v>1346.69</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.770000</v>
+        <v>-168.77</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>11237.642085</v>
+        <v>11237.642084999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>3.121567</v>
+        <v>3.1215670000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1359.430000</v>
+        <v>1359.43</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.716000</v>
+        <v>-178.71600000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>11248.090311</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.124470</v>
+        <v>3.1244700000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1379.870000</v>
+        <v>1379.87</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.976000</v>
+        <v>-208.976</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>11258.398170</v>
+        <v>11258.39817</v>
       </c>
       <c r="AP6" s="1">
-        <v>3.127333</v>
+        <v>3.1273330000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1401.380000</v>
+        <v>1401.38</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.214000</v>
+        <v>-253.214</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>11269.107821</v>
       </c>
       <c r="AU6" s="1">
-        <v>3.130308</v>
+        <v>3.1303079999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1425.760000</v>
+        <v>1425.76</v>
       </c>
       <c r="AW6" s="1">
-        <v>-313.745000</v>
+        <v>-313.745</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>11280.218707</v>
@@ -1659,13 +2075,13 @@
         <v>3.133394</v>
       </c>
       <c r="BA6" s="1">
-        <v>1444.970000</v>
+        <v>1444.97</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.354000</v>
+        <v>-366.35399999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>11290.830112</v>
@@ -1674,73 +2090,73 @@
         <v>3.136342</v>
       </c>
       <c r="BF6" s="1">
-        <v>1529.680000</v>
+        <v>1529.68</v>
       </c>
       <c r="BG6" s="1">
-        <v>-617.116000</v>
+        <v>-617.11599999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>11301.567473</v>
+        <v>11301.567472999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>3.139324</v>
+        <v>3.1393239999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1683.130000</v>
+        <v>1683.13</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1067.920000</v>
+        <v>-1067.92</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>11312.774114</v>
       </c>
       <c r="BO6" s="1">
-        <v>3.142437</v>
+        <v>3.1424370000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1977.130000</v>
+        <v>1977.13</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1851.070000</v>
+        <v>-1851.07</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>11323.642186</v>
+        <v>11323.642185999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>3.145456</v>
+        <v>3.1454559999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>2367.590000</v>
+        <v>2367.59</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2755.070000</v>
+        <v>-2755.07</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>11334.416022</v>
+        <v>11334.416021999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>3.148449</v>
+        <v>3.1484489999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2852.460000</v>
+        <v>2852.46</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3747.110000</v>
+        <v>-3747.11</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>11346.167269</v>
@@ -1749,75 +2165,75 @@
         <v>3.151713</v>
       </c>
       <c r="CE6" s="1">
-        <v>4305.220000</v>
+        <v>4305.22</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6142.050000</v>
+        <v>-6142.05</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>11175.227511</v>
+        <v>11175.227510999999</v>
       </c>
       <c r="B7" s="1">
-        <v>3.104230</v>
+        <v>3.1042299999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>1244.780000</v>
+        <v>1244.78</v>
       </c>
       <c r="D7" s="1">
-        <v>-307.607000</v>
+        <v>-307.60700000000003</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>11185.886539</v>
+        <v>11185.886538999999</v>
       </c>
       <c r="G7" s="1">
-        <v>3.107191</v>
+        <v>3.1071909999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>1270.050000</v>
+        <v>1270.05</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.159000</v>
+        <v>-265.15899999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>11196.076844</v>
+        <v>11196.076843999999</v>
       </c>
       <c r="L7" s="1">
-        <v>3.110021</v>
+        <v>3.1100210000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.210000</v>
+        <v>1305.21</v>
       </c>
       <c r="N7" s="1">
-        <v>-202.653000</v>
+        <v>-202.65299999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>11206.612366</v>
+        <v>11206.612365999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>3.112948</v>
+        <v>3.1129479999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.770000</v>
+        <v>1316.77</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.317000</v>
+        <v>-184.31700000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>11217.082944</v>
@@ -1826,103 +2242,103 @@
         <v>3.115856</v>
       </c>
       <c r="W7" s="1">
-        <v>1329.630000</v>
+        <v>1329.63</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.899000</v>
+        <v>-170.899</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>11227.471620</v>
+        <v>11227.47162</v>
       </c>
       <c r="AA7" s="1">
-        <v>3.118742</v>
+        <v>3.1187420000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1346.490000</v>
+        <v>1346.49</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.737000</v>
+        <v>-168.73699999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>11237.988292</v>
       </c>
       <c r="AF7" s="1">
-        <v>3.121663</v>
+        <v>3.1216629999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1359.350000</v>
+        <v>1359.35</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.713000</v>
+        <v>-178.71299999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>11248.439495</v>
+        <v>11248.439495000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>3.124567</v>
+        <v>3.1245669999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1379.840000</v>
+        <v>1379.84</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.981000</v>
+        <v>-208.98099999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>11258.810345</v>
       </c>
       <c r="AP7" s="1">
-        <v>3.127447</v>
+        <v>3.1274470000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1401.330000</v>
+        <v>1401.33</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.211000</v>
+        <v>-253.21100000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>11269.413819</v>
+        <v>11269.413818999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>3.130393</v>
+        <v>3.1303930000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1425.770000</v>
+        <v>1425.77</v>
       </c>
       <c r="AW7" s="1">
-        <v>-313.743000</v>
+        <v>-313.74299999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>11280.524237</v>
       </c>
       <c r="AZ7" s="1">
-        <v>3.133479</v>
+        <v>3.1334789999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1444.960000</v>
+        <v>1444.96</v>
       </c>
       <c r="BB7" s="1">
-        <v>-366.301000</v>
+        <v>-366.30099999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>11291.189182</v>
@@ -1931,1071 +2347,1071 @@
         <v>3.136441</v>
       </c>
       <c r="BF7" s="1">
-        <v>1529.600000</v>
+        <v>1529.6</v>
       </c>
       <c r="BG7" s="1">
-        <v>-617.175000</v>
+        <v>-617.17499999999995</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>11301.944250</v>
+        <v>11301.94425</v>
       </c>
       <c r="BJ7" s="1">
-        <v>3.139429</v>
+        <v>3.1394289999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1683.170000</v>
+        <v>1683.17</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1067.860000</v>
+        <v>-1067.8599999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>11313.195217</v>
       </c>
       <c r="BO7" s="1">
-        <v>3.142554</v>
+        <v>3.1425540000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1977.160000</v>
+        <v>1977.16</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1850.750000</v>
+        <v>-1850.75</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>11324.071954</v>
+        <v>11324.071953999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>3.145576</v>
+        <v>3.1455760000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2368.500000</v>
+        <v>2368.5</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2755.670000</v>
+        <v>-2755.67</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>11334.837125</v>
       </c>
       <c r="BY7" s="1">
-        <v>3.148566</v>
+        <v>3.1485660000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2852.800000</v>
+        <v>2852.8</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3746.760000</v>
+        <v>-3746.76</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>11346.708869</v>
       </c>
       <c r="CD7" s="1">
-        <v>3.151864</v>
+        <v>3.1518640000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>4281.720000</v>
+        <v>4281.72</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6131.180000</v>
+        <v>-6131.18</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>11175.944267</v>
+        <v>11175.944267000001</v>
       </c>
       <c r="B8" s="1">
-        <v>3.104429</v>
+        <v>3.1044290000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1244.860000</v>
+        <v>1244.8599999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-307.694000</v>
+        <v>-307.69400000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>11186.272921</v>
       </c>
       <c r="G8" s="1">
-        <v>3.107298</v>
+        <v>3.1072980000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1270.040000</v>
+        <v>1270.04</v>
       </c>
       <c r="I8" s="1">
-        <v>-265.243000</v>
+        <v>-265.24299999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>11196.422060</v>
+        <v>11196.422060000001</v>
       </c>
       <c r="L8" s="1">
-        <v>3.110117</v>
+        <v>3.1101169999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.000000</v>
+        <v>1305</v>
       </c>
       <c r="N8" s="1">
-        <v>-202.318000</v>
+        <v>-202.31800000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>11206.961067</v>
       </c>
       <c r="Q8" s="1">
-        <v>3.113045</v>
+        <v>3.1130450000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.710000</v>
+        <v>1316.71</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.237000</v>
+        <v>-184.23699999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>11217.425647</v>
       </c>
       <c r="V8" s="1">
-        <v>3.115952</v>
+        <v>3.1159520000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1329.600000</v>
+        <v>1329.6</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.882000</v>
+        <v>-170.88200000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>11227.818857</v>
       </c>
       <c r="AA8" s="1">
-        <v>3.118839</v>
+        <v>3.1188389999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1346.640000</v>
+        <v>1346.64</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.879000</v>
+        <v>-168.87899999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>11238.397493</v>
       </c>
       <c r="AF8" s="1">
-        <v>3.121777</v>
+        <v>3.1217769999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1359.440000</v>
+        <v>1359.44</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.714000</v>
+        <v>-178.714</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>11248.860598</v>
+        <v>11248.860597999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>3.124683</v>
+        <v>3.1246830000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1379.860000</v>
+        <v>1379.86</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.963000</v>
+        <v>-208.96299999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>11259.116872</v>
+        <v>11259.116872000001</v>
       </c>
       <c r="AP8" s="1">
         <v>3.127532</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1401.380000</v>
+        <v>1401.38</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.202000</v>
+        <v>-253.202</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>11269.778379</v>
+        <v>11269.778378999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>3.130494</v>
+        <v>3.1304940000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1425.760000</v>
+        <v>1425.76</v>
       </c>
       <c r="AW8" s="1">
-        <v>-313.706000</v>
+        <v>-313.70600000000002</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>11280.881820</v>
+        <v>11280.881820000001</v>
       </c>
       <c r="AZ8" s="1">
         <v>3.133578</v>
       </c>
       <c r="BA8" s="1">
-        <v>1444.980000</v>
+        <v>1444.98</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.320000</v>
+        <v>-366.32</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>11291.549774</v>
+        <v>11291.549773999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>3.136542</v>
+        <v>3.1365419999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG8" s="1">
-        <v>-617.102000</v>
+        <v>-617.10199999999998</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>11302.320400</v>
+        <v>11302.320400000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>3.139533</v>
+        <v>3.1395330000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1683.070000</v>
+        <v>1683.07</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1067.910000</v>
+        <v>-1067.9100000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>11314.011631</v>
+        <v>11314.011630999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>3.142781</v>
+        <v>3.1427809999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1977.060000</v>
+        <v>1977.06</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1850.960000</v>
+        <v>-1850.96</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>11324.500531</v>
       </c>
       <c r="BT8" s="1">
-        <v>3.145695</v>
+        <v>3.1456949999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>2368.580000</v>
+        <v>2368.58</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2756.530000</v>
+        <v>-2756.53</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>11335.294932</v>
+        <v>11335.294932000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>3.148693</v>
+        <v>3.1486930000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2852.710000</v>
+        <v>2852.71</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3747.390000</v>
+        <v>-3747.39</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>11347.248543</v>
       </c>
       <c r="CD8" s="1">
-        <v>3.152013</v>
+        <v>3.1520130000000002</v>
       </c>
       <c r="CE8" s="1">
-        <v>4293.400000</v>
+        <v>4293.3999999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6148.420000</v>
+        <v>-6148.42</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>11176.213558</v>
+        <v>11176.213557999999</v>
       </c>
       <c r="B9" s="1">
-        <v>3.104504</v>
+        <v>3.1045039999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1244.810000</v>
+        <v>1244.81</v>
       </c>
       <c r="D9" s="1">
-        <v>-307.112000</v>
+        <v>-307.11200000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>11186.617640</v>
+        <v>11186.61764</v>
       </c>
       <c r="G9" s="1">
-        <v>3.107394</v>
+        <v>3.1073940000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>1270.560000</v>
+        <v>1270.56</v>
       </c>
       <c r="I9" s="1">
-        <v>-265.092000</v>
+        <v>-265.09199999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>11196.771243</v>
+        <v>11196.771242999999</v>
       </c>
       <c r="L9" s="1">
         <v>3.110214</v>
       </c>
       <c r="M9" s="1">
-        <v>1304.980000</v>
+        <v>1304.98</v>
       </c>
       <c r="N9" s="1">
-        <v>-202.549000</v>
+        <v>-202.54900000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>11207.309773</v>
+        <v>11207.309773000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.113142</v>
+        <v>3.1131419999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1316.830000</v>
+        <v>1316.83</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.228000</v>
+        <v>-184.22800000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>11217.837359</v>
+        <v>11217.837358999999</v>
       </c>
       <c r="V9" s="1">
         <v>3.116066</v>
       </c>
       <c r="W9" s="1">
-        <v>1329.530000</v>
+        <v>1329.53</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.760000</v>
+        <v>-170.76</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>11228.248889</v>
       </c>
       <c r="AA9" s="1">
-        <v>3.118958</v>
+        <v>3.1189580000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1346.570000</v>
+        <v>1346.57</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.072000</v>
+        <v>-169.072</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>11238.692154</v>
       </c>
       <c r="AF9" s="1">
-        <v>3.121859</v>
+        <v>3.1218590000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>1359.390000</v>
+        <v>1359.39</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.738000</v>
+        <v>-178.738</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>11249.223174</v>
+        <v>11249.223174000001</v>
       </c>
       <c r="AK9" s="1">
         <v>3.124784</v>
       </c>
       <c r="AL9" s="1">
-        <v>1379.830000</v>
+        <v>1379.83</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.961000</v>
+        <v>-208.96100000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>11259.477464</v>
       </c>
       <c r="AP9" s="1">
-        <v>3.127633</v>
+        <v>3.1276329999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1401.360000</v>
+        <v>1401.36</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.194000</v>
+        <v>-253.19399999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>11270.143929</v>
       </c>
       <c r="AU9" s="1">
-        <v>3.130596</v>
+        <v>3.1305960000000002</v>
       </c>
       <c r="AV9" s="1">
-        <v>1425.790000</v>
+        <v>1425.79</v>
       </c>
       <c r="AW9" s="1">
-        <v>-313.751000</v>
+        <v>-313.75099999999998</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>11281.241915</v>
+        <v>11281.241915000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.133678</v>
+        <v>3.1336780000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1444.980000</v>
+        <v>1444.98</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.264000</v>
+        <v>-366.26400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>11292.272476</v>
       </c>
       <c r="BE9" s="1">
-        <v>3.136742</v>
+        <v>3.1367419999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1529.620000</v>
+        <v>1529.62</v>
       </c>
       <c r="BG9" s="1">
-        <v>-617.109000</v>
+        <v>-617.10900000000004</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>11303.059935</v>
+        <v>11303.059934999999</v>
       </c>
       <c r="BJ9" s="1">
-        <v>3.139739</v>
+        <v>3.1397390000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1683.110000</v>
+        <v>1683.11</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1067.880000</v>
+        <v>-1067.8800000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>11314.429231</v>
       </c>
       <c r="BO9" s="1">
-        <v>3.142897</v>
+        <v>3.1428970000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1977.250000</v>
+        <v>1977.25</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1850.820000</v>
+        <v>-1850.82</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>11324.913665</v>
       </c>
       <c r="BT9" s="1">
-        <v>3.145809</v>
+        <v>3.1458089999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2368.620000</v>
+        <v>2368.62</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2757.680000</v>
+        <v>-2757.68</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>11335.710579</v>
+        <v>11335.710579000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>3.148808</v>
+        <v>3.1488079999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2853.610000</v>
+        <v>2853.61</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3746.760000</v>
+        <v>-3746.76</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>11348.096180</v>
+        <v>11348.09618</v>
       </c>
       <c r="CD9" s="1">
-        <v>3.152249</v>
+        <v>3.1522489999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4283.960000</v>
+        <v>4283.96</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6134.650000</v>
+        <v>-6134.65</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>11176.553318</v>
       </c>
       <c r="B10" s="1">
-        <v>3.104598</v>
+        <v>3.1045980000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1245.020000</v>
+        <v>1245.02</v>
       </c>
       <c r="D10" s="1">
-        <v>-307.407000</v>
+        <v>-307.40699999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>11186.960409</v>
+        <v>11186.960408999999</v>
       </c>
       <c r="G10" s="1">
-        <v>3.107489</v>
+        <v>3.1074890000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>1270.530000</v>
+        <v>1270.53</v>
       </c>
       <c r="I10" s="1">
-        <v>-265.389000</v>
+        <v>-265.38900000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>11197.177962</v>
       </c>
       <c r="L10" s="1">
-        <v>3.110327</v>
+        <v>3.1103269999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.050000</v>
+        <v>1305.05</v>
       </c>
       <c r="N10" s="1">
-        <v>-202.705000</v>
+        <v>-202.70500000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>11207.727372</v>
+        <v>11207.727371999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.113258</v>
+        <v>3.1132580000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1316.810000</v>
+        <v>1316.81</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.311000</v>
+        <v>-184.31100000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>11218.115582</v>
       </c>
       <c r="V10" s="1">
-        <v>3.116143</v>
+        <v>3.1161430000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1329.540000</v>
+        <v>1329.54</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.788000</v>
+        <v>-170.78800000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>11228.523172</v>
+        <v>11228.523171999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>3.119034</v>
+        <v>3.1190340000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1346.410000</v>
+        <v>1346.41</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.825000</v>
+        <v>-168.82499999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>11239.033859</v>
+        <v>11239.033858999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>3.121954</v>
+        <v>3.1219540000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1359.390000</v>
+        <v>1359.39</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.783000</v>
+        <v>-178.78299999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>11249.506885</v>
+        <v>11249.506885000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>3.124863</v>
+        <v>3.1248629999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1379.860000</v>
+        <v>1379.86</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.936000</v>
+        <v>-208.93600000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>11259.839543</v>
       </c>
       <c r="AP10" s="1">
-        <v>3.127733</v>
+        <v>3.1277330000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1401.360000</v>
+        <v>1401.36</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.231000</v>
+        <v>-253.23099999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>11270.878538</v>
+        <v>11270.878538000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>3.130800</v>
+        <v>3.1307999999999998</v>
       </c>
       <c r="AV10" s="1">
-        <v>1425.750000</v>
+        <v>1425.75</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.737000</v>
+        <v>-313.73700000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>11281.961610</v>
+        <v>11281.96161</v>
       </c>
       <c r="AZ10" s="1">
-        <v>3.133878</v>
+        <v>3.1338780000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1444.950000</v>
+        <v>1444.95</v>
       </c>
       <c r="BB10" s="1">
-        <v>-366.267000</v>
+        <v>-366.267</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>11292.633036</v>
+        <v>11292.633035999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>3.136843</v>
+        <v>3.1368429999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG10" s="1">
-        <v>-617.098000</v>
+        <v>-617.09799999999996</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>11303.443964</v>
       </c>
       <c r="BJ10" s="1">
-        <v>3.139846</v>
+        <v>3.1398459999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1683.100000</v>
+        <v>1683.1</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1067.880000</v>
+        <v>-1067.8800000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>11314.826527</v>
+        <v>11314.826526999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>3.143007</v>
+        <v>3.1430069999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1977.310000</v>
+        <v>1977.31</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1850.900000</v>
+        <v>-1850.9</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>11325.654720</v>
+        <v>11325.65472</v>
       </c>
       <c r="BT10" s="1">
-        <v>3.146015</v>
+        <v>3.1460149999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>2367.470000</v>
+        <v>2367.4699999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2758.260000</v>
+        <v>-2758.26</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>11336.462018</v>
       </c>
       <c r="BY10" s="1">
-        <v>3.149017</v>
+        <v>3.1490170000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2852.990000</v>
+        <v>2852.99</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3746.750000</v>
+        <v>-3746.75</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>11348.327331</v>
       </c>
       <c r="CD10" s="1">
-        <v>3.152313</v>
+        <v>3.1523129999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4282.860000</v>
+        <v>4282.8599999999997</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6131.800000</v>
+        <v>-6131.8</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>11176.972968</v>
       </c>
       <c r="B11" s="1">
-        <v>3.104715</v>
+        <v>3.1047150000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1245.140000</v>
+        <v>1245.1400000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-307.565000</v>
+        <v>-307.565</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>11187.377549</v>
+        <v>11187.377549000001</v>
       </c>
       <c r="G11" s="1">
         <v>3.107605</v>
       </c>
       <c r="H11" s="1">
-        <v>1271.070000</v>
+        <v>1271.07</v>
       </c>
       <c r="I11" s="1">
-        <v>-264.991000</v>
+        <v>-264.99099999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>11197.474571</v>
+        <v>11197.474571000001</v>
       </c>
       <c r="L11" s="1">
-        <v>3.110410</v>
+        <v>3.1104099999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.460000</v>
+        <v>1305.46</v>
       </c>
       <c r="N11" s="1">
-        <v>-202.467000</v>
+        <v>-202.46700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>11208.016044</v>
       </c>
       <c r="Q11" s="1">
-        <v>3.113338</v>
+        <v>3.1133380000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1316.860000</v>
+        <v>1316.86</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.365000</v>
+        <v>-184.36500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>11218.459310</v>
+        <v>11218.45931</v>
       </c>
       <c r="V11" s="1">
-        <v>3.116239</v>
+        <v>3.1162390000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>1329.610000</v>
+        <v>1329.61</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.706000</v>
+        <v>-170.70599999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>11228.871824</v>
       </c>
       <c r="AA11" s="1">
-        <v>3.119131</v>
+        <v>3.1191309999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1346.680000</v>
+        <v>1346.68</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.858000</v>
+        <v>-168.858</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>11239.376627</v>
       </c>
       <c r="AF11" s="1">
-        <v>3.122049</v>
+        <v>3.1220490000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1359.370000</v>
+        <v>1359.37</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.745000</v>
+        <v>-178.745</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>11250.103076</v>
+        <v>11250.103075999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>3.125029</v>
+        <v>3.1250290000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1379.850000</v>
+        <v>1379.85</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.971000</v>
+        <v>-208.971</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>11260.569159</v>
+        <v>11260.569159000001</v>
       </c>
       <c r="AP11" s="1">
         <v>3.127936</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1401.370000</v>
+        <v>1401.37</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.195000</v>
+        <v>-253.19499999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>11271.257946</v>
       </c>
       <c r="AU11" s="1">
-        <v>3.130905</v>
+        <v>3.1309049999999998</v>
       </c>
       <c r="AV11" s="1">
-        <v>1425.760000</v>
+        <v>1425.76</v>
       </c>
       <c r="AW11" s="1">
-        <v>-313.727000</v>
+        <v>-313.72699999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>11282.319754</v>
       </c>
       <c r="AZ11" s="1">
-        <v>3.133978</v>
+        <v>3.1339779999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1444.970000</v>
+        <v>1444.97</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.309000</v>
+        <v>-366.30900000000003</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>11292.996636</v>
       </c>
       <c r="BE11" s="1">
-        <v>3.136944</v>
+        <v>3.1369440000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1529.620000</v>
+        <v>1529.62</v>
       </c>
       <c r="BG11" s="1">
-        <v>-617.107000</v>
+        <v>-617.10699999999997</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>11303.820302</v>
       </c>
       <c r="BJ11" s="1">
-        <v>3.139950</v>
+        <v>3.1399499999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1683.180000</v>
+        <v>1683.18</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1067.840000</v>
+        <v>-1067.8399999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>11315.554654</v>
       </c>
       <c r="BO11" s="1">
-        <v>3.143210</v>
+        <v>3.1432099999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1977.210000</v>
+        <v>1977.21</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1850.760000</v>
+        <v>-1850.76</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>11325.773232</v>
@@ -3004,317 +3420,317 @@
         <v>3.146048</v>
       </c>
       <c r="BU11" s="1">
-        <v>2366.970000</v>
+        <v>2366.9699999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2759.050000</v>
+        <v>-2759.05</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>11336.614328</v>
       </c>
       <c r="BY11" s="1">
-        <v>3.149060</v>
+        <v>3.14906</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2852.710000</v>
+        <v>2852.71</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3746.910000</v>
+        <v>-3746.91</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>11348.847619</v>
       </c>
       <c r="CD11" s="1">
-        <v>3.152458</v>
+        <v>3.1524580000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>4285.840000</v>
+        <v>4285.84</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6148.710000</v>
+        <v>-6148.71</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>11177.252677</v>
       </c>
       <c r="B12" s="1">
-        <v>3.104792</v>
+        <v>3.1047920000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1244.820000</v>
+        <v>1244.82</v>
       </c>
       <c r="D12" s="1">
-        <v>-307.298000</v>
+        <v>-307.298</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>11187.642871</v>
       </c>
       <c r="G12" s="1">
-        <v>3.107679</v>
+        <v>3.1076790000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1269.980000</v>
+        <v>1269.98</v>
       </c>
       <c r="I12" s="1">
-        <v>-264.970000</v>
+        <v>-264.97000000000003</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>11197.820282</v>
+        <v>11197.820282000001</v>
       </c>
       <c r="L12" s="1">
         <v>3.110506</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.130000</v>
+        <v>1305.1300000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-202.157000</v>
+        <v>-202.15700000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>11208.363244</v>
       </c>
       <c r="Q12" s="1">
-        <v>3.113434</v>
+        <v>3.1134339999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1316.750000</v>
+        <v>1316.75</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.366000</v>
+        <v>-184.36600000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>11218.801599</v>
       </c>
       <c r="V12" s="1">
-        <v>3.116334</v>
+        <v>3.1163340000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1329.690000</v>
+        <v>1329.69</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.776000</v>
+        <v>-170.77600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>11229.221008</v>
       </c>
       <c r="AA12" s="1">
-        <v>3.119228</v>
+        <v>3.1192280000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1346.720000</v>
+        <v>1346.72</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.836000</v>
+        <v>-168.83600000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>11240.063553</v>
       </c>
       <c r="AF12" s="1">
-        <v>3.122240</v>
+        <v>3.1222400000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1359.350000</v>
+        <v>1359.35</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.698000</v>
+        <v>-178.69800000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>11250.218645</v>
+        <v>11250.218645000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>3.125061</v>
+        <v>3.1250610000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1379.840000</v>
+        <v>1379.84</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.956000</v>
+        <v>-208.95599999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>11260.943671</v>
+        <v>11260.943671000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>3.128040</v>
+        <v>3.1280399999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1401.330000</v>
+        <v>1401.33</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.225000</v>
+        <v>-253.22499999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>11271.625513</v>
+        <v>11271.625513000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>3.131007</v>
+        <v>3.1310069999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1425.750000</v>
+        <v>1425.75</v>
       </c>
       <c r="AW12" s="1">
-        <v>-313.711000</v>
+        <v>-313.71100000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>11282.675886</v>
+        <v>11282.675886000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>3.134077</v>
       </c>
       <c r="BA12" s="1">
-        <v>1444.990000</v>
+        <v>1444.99</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.319000</v>
+        <v>-366.31900000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>11293.670667</v>
       </c>
       <c r="BE12" s="1">
-        <v>3.137131</v>
+        <v>3.1371310000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1529.650000</v>
+        <v>1529.65</v>
       </c>
       <c r="BG12" s="1">
-        <v>-617.074000</v>
+        <v>-617.07399999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>11304.586657</v>
       </c>
       <c r="BJ12" s="1">
-        <v>3.140163</v>
+        <v>3.1401629999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1683.110000</v>
+        <v>1683.11</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1067.850000</v>
+        <v>-1067.8499999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>11315.664271</v>
       </c>
       <c r="BO12" s="1">
-        <v>3.143240</v>
+        <v>3.14324</v>
       </c>
       <c r="BP12" s="1">
-        <v>1977.030000</v>
+        <v>1977.03</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1850.800000</v>
+        <v>-1850.8</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>11326.210239</v>
       </c>
       <c r="BT12" s="1">
-        <v>3.146170</v>
+        <v>3.1461700000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2366.070000</v>
+        <v>2366.0700000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2758.930000</v>
+        <v>-2758.93</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>11337.033442</v>
       </c>
       <c r="BY12" s="1">
-        <v>3.149176</v>
+        <v>3.1491760000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2853.900000</v>
+        <v>2853.9</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3747.210000</v>
+        <v>-3747.21</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>11349.362962</v>
+        <v>11349.362961999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>3.152601</v>
+        <v>3.1526010000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>4303.230000</v>
+        <v>4303.2299999999996</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6144.060000</v>
+        <v>-6144.06</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>11177.592932</v>
       </c>
       <c r="B13" s="1">
-        <v>3.104887</v>
+        <v>3.1048870000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1245.250000</v>
+        <v>1245.25</v>
       </c>
       <c r="D13" s="1">
-        <v>-307.437000</v>
+        <v>-307.43700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>11187.996551</v>
@@ -3323,28 +3739,28 @@
         <v>3.107777</v>
       </c>
       <c r="H13" s="1">
-        <v>1270.160000</v>
+        <v>1270.1600000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-265.057000</v>
+        <v>-265.05700000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>11198.165497</v>
       </c>
       <c r="L13" s="1">
-        <v>3.110602</v>
+        <v>3.1106020000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.230000</v>
+        <v>1305.23</v>
       </c>
       <c r="N13" s="1">
-        <v>-202.568000</v>
+        <v>-202.56800000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>11208.710443</v>
@@ -3353,28 +3769,28 @@
         <v>3.113531</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.750000</v>
+        <v>1316.75</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.258000</v>
+        <v>-184.25800000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>11219.489005</v>
+        <v>11219.489004999999</v>
       </c>
       <c r="V13" s="1">
-        <v>3.116525</v>
+        <v>3.1165250000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1329.610000</v>
+        <v>1329.61</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.855000</v>
+        <v>-170.85499999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>11229.914416</v>
@@ -3383,58 +3799,58 @@
         <v>3.119421</v>
       </c>
       <c r="AB13" s="1">
-        <v>1346.740000</v>
+        <v>1346.74</v>
       </c>
       <c r="AC13" s="1">
-        <v>-168.807000</v>
+        <v>-168.80699999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>11240.406289</v>
       </c>
       <c r="AF13" s="1">
-        <v>3.122335</v>
+        <v>3.1223350000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1359.360000</v>
+        <v>1359.36</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.710000</v>
+        <v>-178.71</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>11250.550467</v>
+        <v>11250.550466999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>3.125153</v>
+        <v>3.1251530000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1379.860000</v>
+        <v>1379.86</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.934000</v>
+        <v>-208.934</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>11261.303239</v>
+        <v>11261.303239000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>3.128140</v>
+        <v>3.1281400000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1401.380000</v>
+        <v>1401.38</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.229000</v>
+        <v>-253.22900000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>11272.300535</v>
@@ -3443,43 +3859,43 @@
         <v>3.131195</v>
       </c>
       <c r="AV13" s="1">
-        <v>1425.790000</v>
+        <v>1425.79</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.723000</v>
+        <v>-313.72300000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>11283.352394</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3.134265</v>
+        <v>3.1342650000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1444.980000</v>
+        <v>1444.98</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.294000</v>
+        <v>-366.29399999999998</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>11294.103178</v>
+        <v>11294.103177999999</v>
       </c>
       <c r="BE13" s="1">
         <v>3.137251</v>
       </c>
       <c r="BF13" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG13" s="1">
-        <v>-617.081000</v>
+        <v>-617.08100000000002</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>11304.946716</v>
@@ -3488,270 +3904,270 @@
         <v>3.140263</v>
       </c>
       <c r="BK13" s="1">
-        <v>1683.120000</v>
+        <v>1683.12</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1067.830000</v>
+        <v>-1067.83</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>11316.066525</v>
       </c>
       <c r="BO13" s="1">
-        <v>3.143352</v>
+        <v>3.1433520000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1977.030000</v>
+        <v>1977.03</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1850.690000</v>
+        <v>-1850.69</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>11326.623872</v>
       </c>
       <c r="BT13" s="1">
-        <v>3.146284</v>
+        <v>3.1462840000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2364.760000</v>
+        <v>2364.7600000000002</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2758.830000</v>
+        <v>-2758.83</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>11337.455505</v>
       </c>
       <c r="BY13" s="1">
-        <v>3.149293</v>
+        <v>3.1492930000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2853.430000</v>
+        <v>2853.43</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3747.130000</v>
+        <v>-3747.13</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>11349.881809</v>
       </c>
       <c r="CD13" s="1">
-        <v>3.152745</v>
+        <v>3.1527449999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4297.610000</v>
+        <v>4297.6099999999997</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6126.820000</v>
+        <v>-6126.82</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>11177.935699</v>
       </c>
       <c r="B14" s="1">
-        <v>3.104982</v>
+        <v>3.1049820000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1245.020000</v>
+        <v>1245.02</v>
       </c>
       <c r="D14" s="1">
-        <v>-307.328000</v>
+        <v>-307.32799999999997</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>11188.344710</v>
+        <v>11188.344709999999</v>
       </c>
       <c r="G14" s="1">
-        <v>3.107874</v>
+        <v>3.1078739999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.730000</v>
+        <v>1269.73</v>
       </c>
       <c r="I14" s="1">
-        <v>-265.101000</v>
+        <v>-265.101</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>11198.860920</v>
+        <v>11198.860919999999</v>
       </c>
       <c r="L14" s="1">
         <v>3.110795</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.210000</v>
+        <v>1305.21</v>
       </c>
       <c r="N14" s="1">
-        <v>-202.486000</v>
+        <v>-202.48599999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>11209.410330</v>
+        <v>11209.410330000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>3.113725</v>
+        <v>3.1137250000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.790000</v>
+        <v>1316.79</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.239000</v>
+        <v>-184.239</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>11219.820829</v>
       </c>
       <c r="V14" s="1">
-        <v>3.116617</v>
+        <v>3.1166170000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1329.720000</v>
+        <v>1329.72</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.856000</v>
+        <v>-170.85599999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>11230.266078</v>
+        <v>11230.266078000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>3.119518</v>
+        <v>3.1195179999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>1346.660000</v>
+        <v>1346.66</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.834000</v>
+        <v>-168.834</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>11240.751537</v>
       </c>
       <c r="AF14" s="1">
-        <v>3.122431</v>
+        <v>3.1224310000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1359.370000</v>
+        <v>1359.37</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.775000</v>
+        <v>-178.77500000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>11251.205187</v>
       </c>
       <c r="AK14" s="1">
-        <v>3.125335</v>
+        <v>3.1253350000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1379.850000</v>
+        <v>1379.85</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.938000</v>
+        <v>-208.93799999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>11261.968404</v>
+        <v>11261.968403999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>3.128325</v>
+        <v>3.1283249999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1401.360000</v>
+        <v>1401.36</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.215000</v>
+        <v>-253.215</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>11272.751430</v>
+        <v>11272.75143</v>
       </c>
       <c r="AU14" s="1">
-        <v>3.131320</v>
+        <v>3.1313200000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1425.760000</v>
+        <v>1425.76</v>
       </c>
       <c r="AW14" s="1">
-        <v>-313.737000</v>
+        <v>-313.73700000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>11283.754648</v>
       </c>
       <c r="AZ14" s="1">
-        <v>3.134376</v>
+        <v>3.1343760000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1444.940000</v>
+        <v>1444.94</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.287000</v>
+        <v>-366.28699999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>11294.462319</v>
       </c>
       <c r="BE14" s="1">
-        <v>3.137351</v>
+        <v>3.1373509999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1529.650000</v>
+        <v>1529.65</v>
       </c>
       <c r="BG14" s="1">
-        <v>-617.062000</v>
+        <v>-617.06200000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>11305.321195</v>
       </c>
       <c r="BJ14" s="1">
-        <v>3.140367</v>
+        <v>3.1403669999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1683.120000</v>
+        <v>1683.12</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1067.830000</v>
+        <v>-1067.83</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>11316.462366</v>
@@ -3760,61 +4176,61 @@
         <v>3.143462</v>
       </c>
       <c r="BP14" s="1">
-        <v>1977.090000</v>
+        <v>1977.09</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1850.740000</v>
+        <v>-1850.74</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>11327.053407</v>
+        <v>11327.053406999999</v>
       </c>
       <c r="BT14" s="1">
         <v>3.146404</v>
       </c>
       <c r="BU14" s="1">
-        <v>2363.890000</v>
+        <v>2363.89</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2758.090000</v>
+        <v>-2758.09</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>11337.913314</v>
+        <v>11337.913313999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>3.149420</v>
+        <v>3.1494200000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2853.840000</v>
+        <v>2853.84</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3746.690000</v>
+        <v>-3746.69</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>11350.398608</v>
       </c>
       <c r="CD14" s="1">
-        <v>3.152889</v>
+        <v>3.1528890000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4300.670000</v>
+        <v>4300.67</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6137.250000</v>
+        <v>-6137.25</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>11178.618691</v>
       </c>
@@ -3822,73 +4238,73 @@
         <v>3.105172</v>
       </c>
       <c r="C15" s="1">
-        <v>1244.840000</v>
+        <v>1244.8399999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-307.516000</v>
+        <v>-307.51600000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>11189.038614</v>
+        <v>11189.038613999999</v>
       </c>
       <c r="G15" s="1">
         <v>3.108066</v>
       </c>
       <c r="H15" s="1">
-        <v>1270.500000</v>
+        <v>1270.5</v>
       </c>
       <c r="I15" s="1">
-        <v>-264.959000</v>
+        <v>-264.959</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>11199.205113</v>
       </c>
       <c r="L15" s="1">
-        <v>3.110890</v>
+        <v>3.1108899999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1304.970000</v>
+        <v>1304.97</v>
       </c>
       <c r="N15" s="1">
-        <v>-202.443000</v>
+        <v>-202.44300000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>11209.757002</v>
       </c>
       <c r="Q15" s="1">
-        <v>3.113821</v>
+        <v>3.1138210000000002</v>
       </c>
       <c r="R15" s="1">
-        <v>1316.820000</v>
+        <v>1316.82</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.257000</v>
+        <v>-184.25700000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>11220.176988</v>
+        <v>11220.176987999999</v>
       </c>
       <c r="V15" s="1">
-        <v>3.116716</v>
+        <v>3.1167159999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1329.530000</v>
+        <v>1329.53</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.842000</v>
+        <v>-170.84200000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>11230.625219</v>
@@ -3897,58 +4313,58 @@
         <v>3.119618</v>
       </c>
       <c r="AB15" s="1">
-        <v>1346.780000</v>
+        <v>1346.78</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.979000</v>
+        <v>-168.97900000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>11241.404241</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.122612</v>
+        <v>3.1226120000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1359.370000</v>
+        <v>1359.37</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.731000</v>
+        <v>-178.73099999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>11251.596066</v>
       </c>
       <c r="AK15" s="1">
-        <v>3.125443</v>
+        <v>3.1254430000000002</v>
       </c>
       <c r="AL15" s="1">
-        <v>1379.850000</v>
+        <v>1379.85</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.954000</v>
+        <v>-208.95400000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>11262.384516</v>
       </c>
       <c r="AP15" s="1">
-        <v>3.128440</v>
+        <v>3.1284399999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1401.380000</v>
+        <v>1401.38</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.185000</v>
+        <v>-253.185</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>11273.114967</v>
@@ -3957,121 +4373,121 @@
         <v>3.131421</v>
       </c>
       <c r="AV15" s="1">
-        <v>1425.760000</v>
+        <v>1425.76</v>
       </c>
       <c r="AW15" s="1">
-        <v>-313.739000</v>
+        <v>-313.73899999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>11284.139080</v>
+        <v>11284.139080000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>3.134483</v>
+        <v>3.1344829999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1444.970000</v>
+        <v>1444.97</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.248000</v>
+        <v>-366.24799999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>11294.828121</v>
       </c>
       <c r="BE15" s="1">
-        <v>3.137452</v>
+        <v>3.1374520000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG15" s="1">
-        <v>-617.099000</v>
+        <v>-617.09900000000005</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>11305.736843</v>
+        <v>11305.736843000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>3.140482</v>
       </c>
       <c r="BK15" s="1">
-        <v>1683.040000</v>
+        <v>1683.04</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1067.740000</v>
+        <v>-1067.74</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>11316.880956</v>
+        <v>11316.880956000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>3.143578</v>
+        <v>3.1435780000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1977.150000</v>
+        <v>1977.15</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1850.900000</v>
+        <v>-1850.9</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>11327.483934</v>
       </c>
       <c r="BT15" s="1">
-        <v>3.146523</v>
+        <v>3.1465230000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>2363.300000</v>
+        <v>2363.3000000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2757.220000</v>
+        <v>-2757.22</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>11338.328961</v>
+        <v>11338.328960999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>3.149536</v>
+        <v>3.1495359999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2852.540000</v>
+        <v>2852.54</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3746.260000</v>
+        <v>-3746.26</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>11350.953632</v>
+        <v>11350.953632000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>3.153043</v>
+        <v>3.1530429999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>4298.240000</v>
+        <v>4298.24</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6148.270000</v>
+        <v>-6148.27</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>11178.959938</v>
       </c>
@@ -4079,28 +4495,28 @@
         <v>3.105267</v>
       </c>
       <c r="C16" s="1">
-        <v>1245.120000</v>
+        <v>1245.1199999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-307.462000</v>
+        <v>-307.46199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>11189.383333</v>
       </c>
       <c r="G16" s="1">
-        <v>3.108162</v>
+        <v>3.1081620000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1270.690000</v>
+        <v>1270.69</v>
       </c>
       <c r="I16" s="1">
-        <v>-264.709000</v>
+        <v>-264.709</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>11199.550823</v>
@@ -4109,814 +4525,814 @@
         <v>3.110986</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.050000</v>
+        <v>1305.05</v>
       </c>
       <c r="N16" s="1">
-        <v>-202.440000</v>
+        <v>-202.44</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>11210.107177</v>
       </c>
       <c r="Q16" s="1">
-        <v>3.113919</v>
+        <v>3.1139190000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.860000</v>
+        <v>1316.86</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.336000</v>
+        <v>-184.33600000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>11220.826748</v>
+        <v>11220.826747999999</v>
       </c>
       <c r="V16" s="1">
-        <v>3.116896</v>
+        <v>3.1168960000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1329.670000</v>
+        <v>1329.67</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.902000</v>
+        <v>-170.90199999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>11231.340910</v>
+        <v>11231.340910000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.119817</v>
+        <v>3.1198169999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>1346.700000</v>
+        <v>1346.7</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.753000</v>
+        <v>-168.75299999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>11241.783681</v>
+        <v>11241.783681000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>3.122718</v>
+        <v>3.1227179999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1359.430000</v>
+        <v>1359.43</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.718000</v>
+        <v>-178.71799999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>11251.944259</v>
       </c>
       <c r="AK16" s="1">
-        <v>3.125540</v>
+        <v>3.12554</v>
       </c>
       <c r="AL16" s="1">
-        <v>1379.870000</v>
+        <v>1379.87</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.970000</v>
+        <v>-208.97</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>11262.770900</v>
+        <v>11262.7709</v>
       </c>
       <c r="AP16" s="1">
-        <v>3.128547</v>
+        <v>3.1285470000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1401.370000</v>
+        <v>1401.37</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.215000</v>
+        <v>-253.215</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>11273.482006</v>
       </c>
       <c r="AU16" s="1">
-        <v>3.131523</v>
+        <v>3.1315230000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1425.770000</v>
+        <v>1425.77</v>
       </c>
       <c r="AW16" s="1">
-        <v>-313.728000</v>
+        <v>-313.72800000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>11284.499639</v>
       </c>
       <c r="AZ16" s="1">
-        <v>3.134583</v>
+        <v>3.1345830000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1444.940000</v>
+        <v>1444.94</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.249000</v>
+        <v>-366.24900000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>11295.242489</v>
       </c>
       <c r="BE16" s="1">
-        <v>3.137567</v>
+        <v>3.1375670000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1529.650000</v>
+        <v>1529.65</v>
       </c>
       <c r="BG16" s="1">
-        <v>-617.104000</v>
+        <v>-617.10400000000004</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>11306.070652</v>
       </c>
       <c r="BJ16" s="1">
-        <v>3.140575</v>
+        <v>3.1405750000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1683.100000</v>
+        <v>1683.1</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1067.780000</v>
+        <v>-1067.78</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>11317.283213</v>
+        <v>11317.283213000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>3.143690</v>
+        <v>3.1436899999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1977.030000</v>
+        <v>1977.03</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1850.700000</v>
+        <v>-1850.7</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>11327.891824</v>
       </c>
       <c r="BT16" s="1">
-        <v>3.146637</v>
+        <v>3.1466370000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2363.340000</v>
+        <v>2363.34</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2756.170000</v>
+        <v>-2756.17</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>11338.774096</v>
+        <v>11338.774095999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>3.149659</v>
+        <v>3.1496590000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2852.890000</v>
+        <v>2852.89</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3746.430000</v>
+        <v>-3746.43</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>11351.483359</v>
       </c>
       <c r="CD16" s="1">
-        <v>3.153190</v>
+        <v>3.1531899999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4302.400000</v>
+        <v>4302.3999999999996</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6131.980000</v>
+        <v>-6131.98</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>11179.305122</v>
       </c>
       <c r="B17" s="1">
-        <v>3.105363</v>
+        <v>3.1053630000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1245.260000</v>
+        <v>1245.26</v>
       </c>
       <c r="D17" s="1">
-        <v>-307.420000</v>
+        <v>-307.42</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>11189.725572</v>
+        <v>11189.725571999999</v>
       </c>
       <c r="G17" s="1">
         <v>3.108257</v>
       </c>
       <c r="H17" s="1">
-        <v>1270.090000</v>
+        <v>1270.0899999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-264.797000</v>
+        <v>-264.79700000000003</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>11200.196151</v>
       </c>
       <c r="L17" s="1">
-        <v>3.111166</v>
+        <v>3.1111659999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.460000</v>
+        <v>1305.46</v>
       </c>
       <c r="N17" s="1">
-        <v>-202.347000</v>
+        <v>-202.34700000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>11210.770824</v>
+        <v>11210.770823999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>3.114103</v>
+        <v>3.1141030000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1316.740000</v>
+        <v>1316.74</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.335000</v>
+        <v>-184.33500000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>11221.214090</v>
+        <v>11221.214089999999</v>
       </c>
       <c r="V17" s="1">
-        <v>3.117004</v>
+        <v>3.1170040000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1329.620000</v>
+        <v>1329.62</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.803000</v>
+        <v>-170.803</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>11231.659341</v>
       </c>
       <c r="AA17" s="1">
-        <v>3.119905</v>
+        <v>3.1199050000000002</v>
       </c>
       <c r="AB17" s="1">
-        <v>1346.550000</v>
+        <v>1346.55</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.814000</v>
+        <v>-168.81399999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>11242.124927</v>
+        <v>11242.124927000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>3.122812</v>
+        <v>3.1228120000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1359.420000</v>
+        <v>1359.42</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.693000</v>
+        <v>-178.69300000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>11252.294401</v>
+        <v>11252.294400999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>3.125637</v>
+        <v>3.1256370000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1379.840000</v>
+        <v>1379.84</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.956000</v>
+        <v>-208.95599999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>11263.131491</v>
       </c>
       <c r="AP17" s="1">
-        <v>3.128648</v>
+        <v>3.1286480000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1401.370000</v>
+        <v>1401.37</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.188000</v>
+        <v>-253.18799999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>11273.892230</v>
+        <v>11273.892229999999</v>
       </c>
       <c r="AU17" s="1">
         <v>3.131637</v>
       </c>
       <c r="AV17" s="1">
-        <v>1425.770000</v>
+        <v>1425.77</v>
       </c>
       <c r="AW17" s="1">
-        <v>-313.719000</v>
+        <v>-313.71899999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>11284.915783</v>
       </c>
       <c r="AZ17" s="1">
-        <v>3.134699</v>
+        <v>3.1346989999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1444.930000</v>
+        <v>1444.93</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.292000</v>
+        <v>-366.29199999999997</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>11295.549512</v>
       </c>
       <c r="BE17" s="1">
-        <v>3.137653</v>
+        <v>3.1376529999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1529.640000</v>
+        <v>1529.64</v>
       </c>
       <c r="BG17" s="1">
-        <v>-617.024000</v>
+        <v>-617.024</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>11306.471419</v>
       </c>
       <c r="BJ17" s="1">
-        <v>3.140687</v>
+        <v>3.1406869999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1683.120000</v>
+        <v>1683.12</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1067.760000</v>
+        <v>-1067.76</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>11317.705307</v>
       </c>
       <c r="BO17" s="1">
-        <v>3.143807</v>
+        <v>3.1438069999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1977.170000</v>
+        <v>1977.17</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1850.760000</v>
+        <v>-1850.76</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>11328.327133</v>
+        <v>11328.327133000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>3.146758</v>
+        <v>3.1467580000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>2363.410000</v>
+        <v>2363.41</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2755.160000</v>
+        <v>-2755.16</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>11339.196959</v>
+        <v>11339.196959000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>3.149777</v>
+        <v>3.1497769999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2853.030000</v>
+        <v>2853.03</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3746.680000</v>
+        <v>-3746.68</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>11352.004158</v>
       </c>
       <c r="CD17" s="1">
-        <v>3.153334</v>
+        <v>3.1533340000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>4279.980000</v>
+        <v>4279.9799999999996</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6135.140000</v>
+        <v>-6135.14</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>11179.944497</v>
       </c>
       <c r="B18" s="1">
-        <v>3.105540</v>
+        <v>3.10554</v>
       </c>
       <c r="C18" s="1">
-        <v>1244.670000</v>
+        <v>1244.67</v>
       </c>
       <c r="D18" s="1">
-        <v>-307.522000</v>
+        <v>-307.52199999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>11190.382771</v>
+        <v>11190.382771000001</v>
       </c>
       <c r="G18" s="1">
-        <v>3.108440</v>
+        <v>3.1084399999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1270.260000</v>
+        <v>1270.26</v>
       </c>
       <c r="I18" s="1">
-        <v>-265.418000</v>
+        <v>-265.41800000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>11200.585014</v>
       </c>
       <c r="L18" s="1">
-        <v>3.111274</v>
+        <v>3.1112739999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.350000</v>
+        <v>1305.3499999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-202.753000</v>
+        <v>-202.75299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>11211.148281</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.114208</v>
+        <v>3.1142080000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1316.720000</v>
+        <v>1316.72</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.250000</v>
+        <v>-184.25</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>11221.559802</v>
       </c>
       <c r="V18" s="1">
-        <v>3.117100</v>
+        <v>3.1171000000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>1329.730000</v>
+        <v>1329.73</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.776000</v>
+        <v>-170.77600000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>11232.008556</v>
+        <v>11232.008556000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.120002</v>
+        <v>3.1200019999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1346.450000</v>
+        <v>1346.45</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.659000</v>
+        <v>-168.65899999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>11242.474144</v>
       </c>
       <c r="AF18" s="1">
-        <v>3.122909</v>
+        <v>3.1229089999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1359.420000</v>
+        <v>1359.42</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.760000</v>
+        <v>-178.76</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>11252.708560</v>
+        <v>11252.708559999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>3.125752</v>
+        <v>3.1257519999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1379.840000</v>
+        <v>1379.84</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.926000</v>
+        <v>-208.92599999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>11263.548659</v>
       </c>
       <c r="AP18" s="1">
-        <v>3.128764</v>
+        <v>3.1287639999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1401.360000</v>
+        <v>1401.36</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.180000</v>
+        <v>-253.18</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>11274.211124</v>
+        <v>11274.211123999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>3.131725</v>
+        <v>3.1317249999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1425.740000</v>
+        <v>1425.74</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.709000</v>
+        <v>-313.709</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>11285.217878</v>
+        <v>11285.217877999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>3.134783</v>
+        <v>3.1347830000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1445.010000</v>
+        <v>1445.01</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.309000</v>
+        <v>-366.30900000000003</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>11295.912087</v>
+        <v>11295.912087000001</v>
       </c>
       <c r="BE18" s="1">
         <v>3.137753</v>
       </c>
       <c r="BF18" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG18" s="1">
-        <v>-617.073000</v>
+        <v>-617.07299999999998</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>11306.846395</v>
       </c>
       <c r="BJ18" s="1">
-        <v>3.140791</v>
+        <v>3.1407910000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1683.120000</v>
+        <v>1683.12</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1067.760000</v>
+        <v>-1067.76</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>11318.099662</v>
+        <v>11318.099662000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>3.143917</v>
+        <v>3.1439170000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1976.910000</v>
+        <v>1976.91</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1850.550000</v>
+        <v>-1850.55</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>11328.754220</v>
+        <v>11328.754220000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>3.146876</v>
+        <v>3.1468759999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>2363.950000</v>
+        <v>2363.9499999999998</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2754.280000</v>
+        <v>-2754.28</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>11339.624084</v>
+        <v>11339.624083999999</v>
       </c>
       <c r="BY18" s="1">
         <v>3.149896</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2852.810000</v>
+        <v>2852.81</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3746.720000</v>
+        <v>-3746.72</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>11352.539607</v>
+        <v>11352.539607000001</v>
       </c>
       <c r="CD18" s="1">
         <v>3.153483</v>
       </c>
       <c r="CE18" s="1">
-        <v>4298.200000</v>
+        <v>4298.2</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6145.660000</v>
+        <v>-6145.66</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>11180.327376</v>
+        <v>11180.327375999999</v>
       </c>
       <c r="B19" s="1">
-        <v>3.105646</v>
+        <v>3.1056460000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1244.920000</v>
+        <v>1244.92</v>
       </c>
       <c r="D19" s="1">
-        <v>-307.570000</v>
+        <v>-307.57</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>11190.762211</v>
+        <v>11190.762210999999</v>
       </c>
       <c r="G19" s="1">
-        <v>3.108545</v>
+        <v>3.1085449999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1270.410000</v>
+        <v>1270.4100000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-265.093000</v>
+        <v>-265.09300000000002</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>11200.930197</v>
       </c>
       <c r="L19" s="1">
-        <v>3.111369</v>
+        <v>3.1113689999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1304.950000</v>
+        <v>1304.95</v>
       </c>
       <c r="N19" s="1">
-        <v>-202.418000</v>
+        <v>-202.41800000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>11211.502953</v>
+        <v>11211.502952999999</v>
       </c>
       <c r="Q19" s="1">
         <v>3.114306</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.670000</v>
+        <v>1316.67</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.257000</v>
+        <v>-184.25700000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>11221.904065</v>
+        <v>11221.904065000001</v>
       </c>
       <c r="V19" s="1">
-        <v>3.117196</v>
+        <v>3.1171959999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1329.540000</v>
+        <v>1329.54</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.832000</v>
+        <v>-170.83199999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>11232.422219</v>
@@ -4925,255 +5341,255 @@
         <v>3.120117</v>
       </c>
       <c r="AB19" s="1">
-        <v>1346.680000</v>
+        <v>1346.68</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.715000</v>
+        <v>-168.715</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>11242.898190</v>
+        <v>11242.89819</v>
       </c>
       <c r="AF19" s="1">
         <v>3.123027</v>
       </c>
       <c r="AG19" s="1">
-        <v>1359.420000</v>
+        <v>1359.42</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.720000</v>
+        <v>-178.72</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>11252.992273</v>
       </c>
       <c r="AK19" s="1">
-        <v>3.125831</v>
+        <v>3.1258309999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1379.870000</v>
+        <v>1379.87</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.958000</v>
+        <v>-208.958</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>11263.852179</v>
       </c>
       <c r="AP19" s="1">
-        <v>3.128848</v>
+        <v>3.1288480000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1401.350000</v>
+        <v>1401.35</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.200000</v>
+        <v>-253.2</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>11274.575686</v>
       </c>
       <c r="AU19" s="1">
-        <v>3.131827</v>
+        <v>3.1318269999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1425.800000</v>
+        <v>1425.8</v>
       </c>
       <c r="AW19" s="1">
-        <v>-313.739000</v>
+        <v>-313.73899999999998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>11285.777831</v>
+        <v>11285.777830999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>3.134938</v>
       </c>
       <c r="BA19" s="1">
-        <v>1444.990000</v>
+        <v>1444.99</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.227000</v>
+        <v>-366.22699999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>11296.273672</v>
+        <v>11296.273671999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>3.137854</v>
+        <v>3.1378539999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1529.640000</v>
+        <v>1529.64</v>
       </c>
       <c r="BG19" s="1">
-        <v>-617.060000</v>
+        <v>-617.05999999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>11307.596840</v>
+        <v>11307.59684</v>
       </c>
       <c r="BJ19" s="1">
-        <v>3.140999</v>
+        <v>3.1409989999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1683.070000</v>
+        <v>1683.07</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1067.730000</v>
+        <v>-1067.73</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>11318.518250</v>
+        <v>11318.518249999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>3.144033</v>
+        <v>3.1440329999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1976.970000</v>
+        <v>1976.97</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1850.670000</v>
+        <v>-1850.67</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>11329.163916</v>
       </c>
       <c r="BT19" s="1">
-        <v>3.146990</v>
+        <v>3.1469900000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>2364.900000</v>
+        <v>2364.9</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2753.470000</v>
+        <v>-2753.47</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>11340.069455</v>
+        <v>11340.069455000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>3.150019</v>
+        <v>3.1500189999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2853.550000</v>
+        <v>2853.55</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3746.610000</v>
+        <v>-3746.61</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>11353.081470</v>
+        <v>11353.081469999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>3.153634</v>
+        <v>3.1536339999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>4293.050000</v>
+        <v>4293.05</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6127.830000</v>
+        <v>-6127.83</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>11180.672108</v>
+        <v>11180.672108000001</v>
       </c>
       <c r="B20" s="1">
-        <v>3.105742</v>
+        <v>3.1057419999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1244.910000</v>
+        <v>1244.9100000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-307.003000</v>
+        <v>-307.00299999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>11191.106964</v>
+        <v>11191.106964000001</v>
       </c>
       <c r="G20" s="1">
         <v>3.108641</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.980000</v>
+        <v>1269.98</v>
       </c>
       <c r="I20" s="1">
-        <v>-265.767000</v>
+        <v>-265.767</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>11201.279381</v>
       </c>
       <c r="L20" s="1">
-        <v>3.111466</v>
+        <v>3.1114660000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.170000</v>
+        <v>1305.17</v>
       </c>
       <c r="N20" s="1">
-        <v>-202.424000</v>
+        <v>-202.42400000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>11211.850119</v>
+        <v>11211.850119000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>3.114403</v>
+        <v>3.1144029999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>1316.800000</v>
+        <v>1316.8</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.240000</v>
+        <v>-184.24</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>11222.320170</v>
+        <v>11222.320170000001</v>
       </c>
       <c r="V20" s="1">
-        <v>3.117311</v>
+        <v>3.1173109999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1329.590000</v>
+        <v>1329.59</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.806000</v>
+        <v>-170.80600000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>11232.705403</v>
@@ -5182,28 +5598,28 @@
         <v>3.120196</v>
       </c>
       <c r="AB20" s="1">
-        <v>1346.710000</v>
+        <v>1346.71</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.730000</v>
+        <v>-168.73</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>11243.174463</v>
+        <v>11243.174462999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>3.123104</v>
+        <v>3.1231040000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1359.400000</v>
+        <v>1359.4</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.750000</v>
+        <v>-178.75</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>11253.340961</v>
@@ -5212,315 +5628,315 @@
         <v>3.125928</v>
       </c>
       <c r="AL20" s="1">
-        <v>1379.830000</v>
+        <v>1379.83</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.948000</v>
+        <v>-208.94800000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>11264.212274</v>
       </c>
       <c r="AP20" s="1">
-        <v>3.128948</v>
+        <v>3.1289479999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1401.330000</v>
+        <v>1401.33</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.193000</v>
+        <v>-253.19300000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>11274.939251</v>
       </c>
       <c r="AU20" s="1">
-        <v>3.131928</v>
+        <v>3.1319279999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1425.770000</v>
+        <v>1425.77</v>
       </c>
       <c r="AW20" s="1">
-        <v>-313.727000</v>
+        <v>-313.72699999999998</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>11286.546628</v>
       </c>
       <c r="AZ20" s="1">
-        <v>3.135152</v>
+        <v>3.1351520000000002</v>
       </c>
       <c r="BA20" s="1">
-        <v>1444.930000</v>
+        <v>1444.93</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.279000</v>
+        <v>-366.279</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>11296.992904</v>
+        <v>11296.992904000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>3.138054</v>
+        <v>3.1380539999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG20" s="1">
-        <v>-617.039000</v>
+        <v>-617.03899999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>11307.972809</v>
+        <v>11307.972809000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>3.141104</v>
+        <v>3.1411039999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1683.060000</v>
+        <v>1683.06</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1067.730000</v>
+        <v>-1067.73</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>11318.916043</v>
+        <v>11318.916042999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>3.144143</v>
+        <v>3.1441430000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1977.150000</v>
+        <v>1977.15</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1850.590000</v>
+        <v>-1850.59</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>11329.597387</v>
       </c>
       <c r="BT20" s="1">
-        <v>3.147110</v>
+        <v>3.1471100000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2365.980000</v>
+        <v>2365.98</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2753.590000</v>
+        <v>-2753.59</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>11340.500941</v>
       </c>
       <c r="BY20" s="1">
-        <v>3.150139</v>
+        <v>3.1501389999999998</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2852.480000</v>
+        <v>2852.48</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3745.480000</v>
+        <v>-3745.48</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>11353.924667</v>
+        <v>11353.924666999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>3.153868</v>
+        <v>3.1538680000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4298.130000</v>
+        <v>4298.13</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6143.820000</v>
+        <v>-6143.82</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>11181.014336</v>
       </c>
       <c r="B21" s="1">
-        <v>3.105837</v>
+        <v>3.1058370000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1245.210000</v>
+        <v>1245.21</v>
       </c>
       <c r="D21" s="1">
-        <v>-307.499000</v>
+        <v>-307.49900000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>11191.450161</v>
+        <v>11191.450161000001</v>
       </c>
       <c r="G21" s="1">
-        <v>3.108736</v>
+        <v>3.1087359999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1270.320000</v>
+        <v>1270.32</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.691000</v>
+        <v>-264.69099999999997</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>11201.692053</v>
+        <v>11201.692053000001</v>
       </c>
       <c r="L21" s="1">
-        <v>3.111581</v>
+        <v>3.1115810000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.210000</v>
+        <v>1305.21</v>
       </c>
       <c r="N21" s="1">
-        <v>-202.230000</v>
+        <v>-202.23</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>11212.316854</v>
+        <v>11212.316854000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>3.114532</v>
+        <v>3.1145320000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.820000</v>
+        <v>1316.82</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.221000</v>
+        <v>-184.221</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>11222.601903</v>
+        <v>11222.601903000001</v>
       </c>
       <c r="V21" s="1">
-        <v>3.117389</v>
+        <v>3.1173890000000002</v>
       </c>
       <c r="W21" s="1">
-        <v>1329.640000</v>
+        <v>1329.64</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.792000</v>
+        <v>-170.792</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>11233.056075</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.120293</v>
+        <v>3.1202930000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1346.470000</v>
+        <v>1346.47</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.767000</v>
+        <v>-168.767</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>11243.519181</v>
       </c>
       <c r="AF21" s="1">
-        <v>3.123200</v>
+        <v>3.1232000000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>1359.400000</v>
+        <v>1359.4</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.730000</v>
+        <v>-178.73</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>11253.688682</v>
       </c>
       <c r="AK21" s="1">
-        <v>3.126025</v>
+        <v>3.1260249999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1379.840000</v>
+        <v>1379.84</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.949000</v>
+        <v>-208.94900000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>11264.569921</v>
       </c>
       <c r="AP21" s="1">
-        <v>3.129047</v>
+        <v>3.1290469999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1401.390000</v>
+        <v>1401.39</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.193000</v>
+        <v>-253.19300000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>11275.677796</v>
       </c>
       <c r="AU21" s="1">
-        <v>3.132133</v>
+        <v>3.1321330000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1425.750000</v>
+        <v>1425.75</v>
       </c>
       <c r="AW21" s="1">
-        <v>-313.701000</v>
+        <v>-313.70100000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>11286.659753</v>
       </c>
       <c r="AZ21" s="1">
-        <v>3.135183</v>
+        <v>3.1351830000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1444.980000</v>
+        <v>1444.98</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.238000</v>
+        <v>-366.238</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>11297.352502</v>
@@ -5529,73 +5945,73 @@
         <v>3.138153</v>
       </c>
       <c r="BF21" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG21" s="1">
-        <v>-617.033000</v>
+        <v>-617.03300000000002</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>11308.336909</v>
       </c>
       <c r="BJ21" s="1">
-        <v>3.141205</v>
+        <v>3.1412049999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1683.080000</v>
+        <v>1683.08</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1067.740000</v>
+        <v>-1067.74</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>11319.335657</v>
       </c>
       <c r="BO21" s="1">
-        <v>3.144260</v>
+        <v>3.1442600000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1976.980000</v>
+        <v>1976.98</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1850.650000</v>
+        <v>-1850.65</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>11330.335466</v>
       </c>
       <c r="BT21" s="1">
-        <v>3.147315</v>
+        <v>3.1473149999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2366.910000</v>
+        <v>2366.91</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2754.120000</v>
+        <v>-2754.12</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>11341.294571</v>
       </c>
       <c r="BY21" s="1">
-        <v>3.150360</v>
+        <v>3.15036</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2852.690000</v>
+        <v>2852.69</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3746.000000</v>
+        <v>-3746</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>11354.160763</v>
@@ -5604,180 +6020,180 @@
         <v>3.153934</v>
       </c>
       <c r="CE21" s="1">
-        <v>4297.530000</v>
+        <v>4297.53</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6146.420000</v>
+        <v>-6146.42</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>11181.427999</v>
       </c>
       <c r="B22" s="1">
-        <v>3.105952</v>
+        <v>3.1059519999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>1244.980000</v>
+        <v>1244.98</v>
       </c>
       <c r="D22" s="1">
-        <v>-307.426000</v>
+        <v>-307.42599999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>11191.872259</v>
       </c>
       <c r="G22" s="1">
-        <v>3.108853</v>
+        <v>3.1088529999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1270.830000</v>
+        <v>1270.83</v>
       </c>
       <c r="I22" s="1">
-        <v>-265.597000</v>
+        <v>-265.59699999999998</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>11201.989689</v>
       </c>
       <c r="L22" s="1">
-        <v>3.111664</v>
+        <v>3.1116640000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.060000</v>
+        <v>1305.06</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.133000</v>
+        <v>-202.13300000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>11212.572295</v>
       </c>
       <c r="Q22" s="1">
-        <v>3.114603</v>
+        <v>3.1146029999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>1316.790000</v>
+        <v>1316.79</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.310000</v>
+        <v>-184.31</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>11222.944632</v>
+        <v>11222.944632000001</v>
       </c>
       <c r="V22" s="1">
-        <v>3.117485</v>
+        <v>3.1174849999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1329.700000</v>
+        <v>1329.7</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.738000</v>
+        <v>-170.738</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>11233.403274</v>
       </c>
       <c r="AA22" s="1">
-        <v>3.120390</v>
+        <v>3.12039</v>
       </c>
       <c r="AB22" s="1">
-        <v>1346.710000</v>
+        <v>1346.71</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.697000</v>
+        <v>-168.697</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>11243.863900</v>
+        <v>11243.8639</v>
       </c>
       <c r="AF22" s="1">
-        <v>3.123296</v>
+        <v>3.1232959999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1359.380000</v>
+        <v>1359.38</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.681000</v>
+        <v>-178.68100000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>11254.387546</v>
       </c>
       <c r="AK22" s="1">
-        <v>3.126219</v>
+        <v>3.1262189999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1379.880000</v>
+        <v>1379.88</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.966000</v>
+        <v>-208.96600000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>11265.288630</v>
+        <v>11265.288629999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>3.129247</v>
+        <v>3.1292469999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1401.350000</v>
+        <v>1401.35</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.218000</v>
+        <v>-253.21799999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>11276.056738</v>
+        <v>11276.056737999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>3.132238</v>
+        <v>3.1322380000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1425.750000</v>
+        <v>1425.75</v>
       </c>
       <c r="AW22" s="1">
-        <v>-313.691000</v>
+        <v>-313.69099999999997</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>11287.047091</v>
       </c>
       <c r="AZ22" s="1">
-        <v>3.135291</v>
+        <v>3.1352910000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1444.960000</v>
+        <v>1444.96</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.309000</v>
+        <v>-366.30900000000003</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>11297.717558</v>
@@ -5786,225 +6202,225 @@
         <v>3.138255</v>
       </c>
       <c r="BF22" s="1">
-        <v>1529.630000</v>
+        <v>1529.63</v>
       </c>
       <c r="BG22" s="1">
-        <v>-617.078000</v>
+        <v>-617.07799999999997</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>11309.054582</v>
+        <v>11309.054582000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>3.141404</v>
+        <v>3.1414040000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1683.000000</v>
+        <v>1683</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1067.650000</v>
+        <v>-1067.6500000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>11320.048408</v>
+        <v>11320.048408000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>3.144458</v>
+        <v>3.1444580000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1976.910000</v>
+        <v>1976.91</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1850.500000</v>
+        <v>-1850.5</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>11330.471834</v>
       </c>
       <c r="BT22" s="1">
-        <v>3.147353</v>
+        <v>3.1473529999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.770000</v>
+        <v>2367.77</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2754.470000</v>
+        <v>-2754.47</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>11341.766763</v>
       </c>
       <c r="BY22" s="1">
-        <v>3.150491</v>
+        <v>3.1504910000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2853.120000</v>
+        <v>2853.12</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3745.910000</v>
+        <v>-3745.91</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>11354.680107</v>
       </c>
       <c r="CD22" s="1">
-        <v>3.154078</v>
+        <v>3.1540780000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>4298.890000</v>
+        <v>4298.8900000000003</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6129.810000</v>
+        <v>-6129.81</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>11181.712239</v>
       </c>
       <c r="B23" s="1">
-        <v>3.106031</v>
+        <v>3.1060310000000002</v>
       </c>
       <c r="C23" s="1">
-        <v>1244.880000</v>
+        <v>1244.8800000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-307.318000</v>
+        <v>-307.31799999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>11192.143073</v>
+        <v>11192.143072999999</v>
       </c>
       <c r="G23" s="1">
-        <v>3.108929</v>
+        <v>3.1089289999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1270.480000</v>
+        <v>1270.48</v>
       </c>
       <c r="I23" s="1">
-        <v>-265.044000</v>
+        <v>-265.04399999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>11202.335363</v>
       </c>
       <c r="L23" s="1">
-        <v>3.111760</v>
+        <v>3.1117599999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.900000</v>
+        <v>1304.9000000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-202.288000</v>
+        <v>-202.28800000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>11212.907094</v>
       </c>
       <c r="Q23" s="1">
-        <v>3.114696</v>
+        <v>3.1146959999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1316.720000</v>
+        <v>1316.72</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.313000</v>
+        <v>-184.31299999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>11223.289880</v>
+        <v>11223.28988</v>
       </c>
       <c r="V23" s="1">
-        <v>3.117581</v>
+        <v>3.1175809999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1329.640000</v>
+        <v>1329.64</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.931000</v>
+        <v>-170.93100000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>11234.101146</v>
+        <v>11234.101146000001</v>
       </c>
       <c r="AA23" s="1">
         <v>3.120584</v>
       </c>
       <c r="AB23" s="1">
-        <v>1346.630000</v>
+        <v>1346.63</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.831000</v>
+        <v>-168.83099999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>11244.549868</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.123486</v>
+        <v>3.1234860000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1359.360000</v>
+        <v>1359.36</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.701000</v>
+        <v>-178.70099999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>11254.736702</v>
       </c>
       <c r="AK23" s="1">
-        <v>3.126316</v>
+        <v>3.1263160000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>1379.900000</v>
+        <v>1379.9</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.948000</v>
+        <v>-208.94800000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>11265.654640</v>
+        <v>11265.654640000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>3.129349</v>
+        <v>3.1293489999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1401.330000</v>
+        <v>1401.33</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.164000</v>
+        <v>-253.16399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>11276.421794</v>
@@ -6013,285 +6429,285 @@
         <v>3.132339</v>
       </c>
       <c r="AV23" s="1">
-        <v>1425.750000</v>
+        <v>1425.75</v>
       </c>
       <c r="AW23" s="1">
-        <v>-313.699000</v>
+        <v>-313.69900000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>11287.716226</v>
       </c>
       <c r="AZ23" s="1">
-        <v>3.135477</v>
+        <v>3.1354769999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>1445.000000</v>
+        <v>1445</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.293000</v>
+        <v>-366.29300000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>11298.375717</v>
+        <v>11298.375717000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>3.138438</v>
+        <v>3.1384379999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1529.650000</v>
+        <v>1529.65</v>
       </c>
       <c r="BG23" s="1">
-        <v>-617.018000</v>
+        <v>-617.01800000000003</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>11309.500023</v>
+        <v>11309.500023000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>3.141528</v>
+        <v>3.1415280000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1683.090000</v>
+        <v>1683.09</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1067.720000</v>
+        <v>-1067.72</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>11320.158522</v>
       </c>
       <c r="BO23" s="1">
-        <v>3.144488</v>
+        <v>3.1444879999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1976.970000</v>
+        <v>1976.97</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1850.580000</v>
+        <v>-1850.58</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>11330.882026</v>
+        <v>11330.882025999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>3.147467</v>
+        <v>3.1474669999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>2368.140000</v>
+        <v>2368.14</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2755.560000</v>
+        <v>-2755.56</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>11342.210155</v>
+        <v>11342.210155000001</v>
       </c>
       <c r="BY23" s="1">
         <v>3.150614</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2852.320000</v>
+        <v>2852.32</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3745.740000</v>
+        <v>-3745.74</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>11355.195419</v>
       </c>
       <c r="CD23" s="1">
-        <v>3.154221</v>
+        <v>3.1542210000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>4281.450000</v>
+        <v>4281.45</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6129.720000</v>
+        <v>-6129.72</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>11182.054944</v>
       </c>
       <c r="B24" s="1">
-        <v>3.106126</v>
+        <v>3.1061260000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>1244.960000</v>
+        <v>1244.96</v>
       </c>
       <c r="D24" s="1">
-        <v>-307.435000</v>
+        <v>-307.435</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>11192.487793</v>
       </c>
       <c r="G24" s="1">
-        <v>3.109024</v>
+        <v>3.1090239999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1270.170000</v>
+        <v>1270.17</v>
       </c>
       <c r="I24" s="1">
-        <v>-265.389000</v>
+        <v>-265.38900000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>11202.679587</v>
+        <v>11202.679587000001</v>
       </c>
       <c r="L24" s="1">
-        <v>3.111855</v>
+        <v>3.1118549999999998</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.120000</v>
+        <v>1305.1199999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.499000</v>
+        <v>-202.499</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>11213.602157</v>
+        <v>11213.602156999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.114889</v>
+        <v>3.1148889999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.720000</v>
+        <v>1316.72</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.241000</v>
+        <v>-184.24100000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>11223.974855</v>
       </c>
       <c r="V24" s="1">
-        <v>3.117771</v>
+        <v>3.1177709999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>1329.660000</v>
+        <v>1329.66</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.837000</v>
+        <v>-170.83699999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>11234.447353</v>
       </c>
       <c r="AA24" s="1">
-        <v>3.120680</v>
+        <v>3.1206800000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1346.890000</v>
+        <v>1346.89</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.853000</v>
+        <v>-168.85300000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>11244.895083</v>
+        <v>11244.895082999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>3.123582</v>
+        <v>3.1235819999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1359.420000</v>
+        <v>1359.42</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.789000</v>
+        <v>-178.78899999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>11255.080926</v>
+        <v>11255.080926000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>3.126411</v>
+        <v>3.1264110000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1379.820000</v>
+        <v>1379.82</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.941000</v>
+        <v>-208.941</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>11266.012752</v>
+        <v>11266.012752000001</v>
       </c>
       <c r="AP24" s="1">
         <v>3.129448</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1401.360000</v>
+        <v>1401.36</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.165000</v>
+        <v>-253.16499999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>11277.112225</v>
+        <v>11277.112225000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>3.132531</v>
+        <v>3.1325310000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1425.750000</v>
+        <v>1425.75</v>
       </c>
       <c r="AW24" s="1">
-        <v>-313.671000</v>
+        <v>-313.67099999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>11288.132338</v>
+        <v>11288.132337999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>3.135592</v>
+        <v>3.1355919999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1444.980000</v>
+        <v>1444.98</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.222000</v>
+        <v>-366.22199999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>11298.825588</v>
@@ -6300,28 +6716,28 @@
         <v>3.138563</v>
       </c>
       <c r="BF24" s="1">
-        <v>1529.570000</v>
+        <v>1529.57</v>
       </c>
       <c r="BG24" s="1">
-        <v>-617.059000</v>
+        <v>-617.05899999999997</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>11309.898807</v>
       </c>
       <c r="BJ24" s="1">
-        <v>3.141639</v>
+        <v>3.1416390000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1683.080000</v>
+        <v>1683.08</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1067.620000</v>
+        <v>-1067.6199999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>11320.582601</v>
@@ -6330,165 +6746,165 @@
         <v>3.144606</v>
       </c>
       <c r="BP24" s="1">
-        <v>1976.960000</v>
+        <v>1976.96</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1850.510000</v>
+        <v>-1850.51</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>11331.310074</v>
+        <v>11331.310074000001</v>
       </c>
       <c r="BT24" s="1">
         <v>3.147586</v>
       </c>
       <c r="BU24" s="1">
-        <v>2368.090000</v>
+        <v>2368.09</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2756.380000</v>
+        <v>-2756.38</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>11342.649611</v>
+        <v>11342.649611000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>3.150736</v>
+        <v>3.1507360000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2852.750000</v>
+        <v>2852.75</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3746.060000</v>
+        <v>-3746.06</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>11355.715753</v>
       </c>
       <c r="CD24" s="1">
-        <v>3.154365</v>
+        <v>3.1543649999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4285.010000</v>
+        <v>4285.01</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6147.050000</v>
+        <v>-6147.05</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>11182.397710</v>
+        <v>11182.397709999999</v>
       </c>
       <c r="B25" s="1">
-        <v>3.106222</v>
+        <v>3.1062219999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>1245.160000</v>
+        <v>1245.1600000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-307.424000</v>
+        <v>-307.42399999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>11192.831055</v>
+        <v>11192.831055000001</v>
       </c>
       <c r="G25" s="1">
-        <v>3.109120</v>
+        <v>3.1091199999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.730000</v>
+        <v>1269.73</v>
       </c>
       <c r="I25" s="1">
-        <v>-265.027000</v>
+        <v>-265.02699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>11203.372994</v>
+        <v>11203.372993999999</v>
       </c>
       <c r="L25" s="1">
-        <v>3.112048</v>
+        <v>3.1120480000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.980000</v>
+        <v>1304.98</v>
       </c>
       <c r="N25" s="1">
-        <v>-202.530000</v>
+        <v>-202.53</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>11213.952661</v>
+        <v>11213.952660999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>3.114987</v>
+        <v>3.1149870000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.740000</v>
+        <v>1316.74</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.210000</v>
+        <v>-184.21</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>11224.319054</v>
       </c>
       <c r="V25" s="1">
-        <v>3.117866</v>
+        <v>3.1178659999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1329.580000</v>
+        <v>1329.58</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.742000</v>
+        <v>-170.74199999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>11234.798521</v>
+        <v>11234.798521000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>3.120777</v>
+        <v>3.1207769999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1346.520000</v>
+        <v>1346.52</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.798000</v>
+        <v>-168.798</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>11245.238316</v>
+        <v>11245.238316000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>3.123677</v>
+        <v>3.1236769999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1359.390000</v>
+        <v>1359.39</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.698000</v>
+        <v>-178.69800000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>11255.741101</v>
@@ -6497,43 +6913,43 @@
         <v>3.126595</v>
       </c>
       <c r="AL25" s="1">
-        <v>1379.860000</v>
+        <v>1379.86</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.961000</v>
+        <v>-208.96100000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>11266.671934</v>
       </c>
       <c r="AP25" s="1">
-        <v>3.129631</v>
+        <v>3.1296309999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1401.330000</v>
+        <v>1401.33</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.195000</v>
+        <v>-253.19499999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>11277.547217</v>
+        <v>11277.547216999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>3.132652</v>
+        <v>3.1326520000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>1425.760000</v>
+        <v>1425.76</v>
       </c>
       <c r="AW25" s="1">
-        <v>-313.727000</v>
+        <v>-313.72699999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>11288.508306</v>
@@ -6542,150 +6958,150 @@
         <v>3.135697</v>
       </c>
       <c r="BA25" s="1">
-        <v>1444.940000</v>
+        <v>1444.94</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.256000</v>
+        <v>-366.25599999999997</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>11299.187172</v>
       </c>
       <c r="BE25" s="1">
-        <v>3.138663</v>
+        <v>3.1386630000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1529.620000</v>
+        <v>1529.62</v>
       </c>
       <c r="BG25" s="1">
-        <v>-616.987000</v>
+        <v>-616.98699999999997</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>11310.279703</v>
       </c>
       <c r="BJ25" s="1">
-        <v>3.141744</v>
+        <v>3.1417440000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1683.010000</v>
+        <v>1683.01</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1067.650000</v>
+        <v>-1067.6500000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>11320.975431</v>
+        <v>11320.975431000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>3.144715</v>
+        <v>3.1447150000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1976.960000</v>
+        <v>1976.96</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1850.470000</v>
+        <v>-1850.47</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>11331.726712</v>
       </c>
       <c r="BT25" s="1">
-        <v>3.147702</v>
+        <v>3.1477020000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>2367.790000</v>
+        <v>2367.79</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2757.110000</v>
+        <v>-2757.11</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>11343.067273</v>
+        <v>11343.067273000001</v>
       </c>
       <c r="BY25" s="1">
         <v>3.150852</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2852.860000</v>
+        <v>2852.86</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3745.420000</v>
+        <v>-3745.42</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>11356.235032</v>
+        <v>11356.235032000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>3.154510</v>
+        <v>3.1545100000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4277.670000</v>
+        <v>4277.67</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6138.380000</v>
+        <v>-6138.38</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>11183.071456</v>
       </c>
       <c r="B26" s="1">
-        <v>3.106409</v>
+        <v>3.1064090000000002</v>
       </c>
       <c r="C26" s="1">
-        <v>1244.890000</v>
+        <v>1244.8900000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-307.447000</v>
+        <v>-307.447</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>11193.536336</v>
+        <v>11193.536335999999</v>
       </c>
       <c r="G26" s="1">
-        <v>3.109316</v>
+        <v>3.1093160000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.450000</v>
+        <v>1269.45</v>
       </c>
       <c r="I26" s="1">
-        <v>-265.712000</v>
+        <v>-265.71199999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>11203.718211</v>
+        <v>11203.718210999999</v>
       </c>
       <c r="L26" s="1">
-        <v>3.112144</v>
+        <v>3.1121439999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.190000</v>
+        <v>1305.19</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.429000</v>
+        <v>-202.429</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>11214.301957</v>
@@ -6694,210 +7110,211 @@
         <v>3.115084</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.820000</v>
+        <v>1316.82</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.248000</v>
+        <v>-184.24799999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>11224.663302</v>
+        <v>11224.663302000001</v>
       </c>
       <c r="V26" s="1">
-        <v>3.117962</v>
+        <v>3.1179619999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1329.710000</v>
+        <v>1329.71</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.833000</v>
+        <v>-170.833</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>11235.459688</v>
+        <v>11235.459688000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>3.120961</v>
+        <v>3.1209609999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1346.530000</v>
+        <v>1346.53</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.742000</v>
+        <v>-168.74199999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>11245.878682</v>
       </c>
       <c r="AF26" s="1">
-        <v>3.123855</v>
+        <v>3.1238549999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1359.360000</v>
+        <v>1359.36</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.688000</v>
+        <v>-178.68799999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>11256.128509</v>
       </c>
       <c r="AK26" s="1">
-        <v>3.126702</v>
+        <v>3.1267019999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1379.860000</v>
+        <v>1379.86</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.924000</v>
+        <v>-208.92400000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>11267.155566</v>
+        <v>11267.155565999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>3.129765</v>
+        <v>3.1297649999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1401.350000</v>
+        <v>1401.35</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.196000</v>
+        <v>-253.196</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>11277.911307</v>
       </c>
       <c r="AU26" s="1">
-        <v>3.132753</v>
+        <v>3.1327530000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1425.750000</v>
+        <v>1425.75</v>
       </c>
       <c r="AW26" s="1">
-        <v>-313.691000</v>
+        <v>-313.69099999999997</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>11288.889729</v>
       </c>
       <c r="AZ26" s="1">
-        <v>3.135803</v>
+        <v>3.1358030000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1444.980000</v>
+        <v>1444.98</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.260000</v>
+        <v>-366.26</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>11299.548260</v>
+        <v>11299.54826</v>
       </c>
       <c r="BE26" s="1">
         <v>3.138763</v>
       </c>
       <c r="BF26" s="1">
-        <v>1529.620000</v>
+        <v>1529.62</v>
       </c>
       <c r="BG26" s="1">
-        <v>-616.994000</v>
+        <v>-616.99400000000003</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>11310.693372</v>
       </c>
       <c r="BJ26" s="1">
-        <v>3.141859</v>
+        <v>3.1418590000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1683.080000</v>
+        <v>1683.08</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1067.600000</v>
+        <v>-1067.5999999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>11321.398059</v>
+        <v>11321.398058999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>3.144833</v>
+        <v>3.1448330000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1976.870000</v>
+        <v>1976.87</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1850.500000</v>
+        <v>-1850.5</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>11332.141522</v>
       </c>
       <c r="BT26" s="1">
-        <v>3.147817</v>
+        <v>3.1478169999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2367.400000</v>
+        <v>2367.4</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2758.030000</v>
+        <v>-2758.03</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>11343.489338</v>
+        <v>11343.489337999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>3.150969</v>
+        <v>3.1509689999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2852.410000</v>
+        <v>2852.41</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3745.150000</v>
+        <v>-3745.15</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>11356.788111</v>
       </c>
       <c r="CD26" s="1">
-        <v>3.154663</v>
+        <v>3.1546630000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>4285.380000</v>
+        <v>4285.38</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6126.230000</v>
+        <v>-6126.23</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>